--- a/data/d_deaths_within_28_days_reported_v2.xlsx
+++ b/data/d_deaths_within_28_days_reported_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\githome\TTS-1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{779C60E4-FF48-42FB-A146-A7720B689ADC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E25A92E-D9E4-45CA-878F-46E0CE11940D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="450" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60" yWindow="5205" windowWidth="22935" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_2020-Dec-06" sheetId="1" r:id="rId1"/>
@@ -927,12 +927,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M342"/>
+  <dimension ref="A1:M344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1110" topLeftCell="A325"/>
-      <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="C335" sqref="C335:C342"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1110" topLeftCell="A321" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="D344" sqref="D344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2858,6 +2857,9 @@
       <c r="B61">
         <v>1</v>
       </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
       <c r="D61">
         <v>0</v>
       </c>
@@ -2894,6 +2896,9 @@
       <c r="B62">
         <v>2</v>
       </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
       <c r="D62">
         <v>0</v>
       </c>
@@ -2930,6 +2935,9 @@
       <c r="B63">
         <v>0</v>
       </c>
+      <c r="C63">
+        <v>3</v>
+      </c>
       <c r="D63">
         <v>0</v>
       </c>
@@ -2966,6 +2974,9 @@
       <c r="B64">
         <v>3</v>
       </c>
+      <c r="C64">
+        <v>6</v>
+      </c>
       <c r="D64">
         <v>0</v>
       </c>
@@ -3003,7 +3014,7 @@
         <v>0</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -3042,7 +3053,7 @@
         <v>0</v>
       </c>
       <c r="C66">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -3081,7 +3092,7 @@
         <v>3</v>
       </c>
       <c r="C67">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -3120,7 +3131,7 @@
         <v>5</v>
       </c>
       <c r="C68">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -3159,7 +3170,7 @@
         <v>3</v>
       </c>
       <c r="C69">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -3198,7 +3209,7 @@
         <v>8</v>
       </c>
       <c r="C70">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -3237,7 +3248,7 @@
         <v>12</v>
       </c>
       <c r="C71">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -3276,7 +3287,7 @@
         <v>16</v>
       </c>
       <c r="C72">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -3315,7 +3326,7 @@
         <v>20</v>
       </c>
       <c r="C73">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -3354,7 +3365,7 @@
         <v>32</v>
       </c>
       <c r="C74">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -3393,7 +3404,7 @@
         <v>42</v>
       </c>
       <c r="C75">
-        <v>64</v>
+        <v>147</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -3435,7 +3446,7 @@
         <v>50</v>
       </c>
       <c r="C76">
-        <v>79</v>
+        <v>197</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -3474,10 +3485,10 @@
         <v>43908</v>
       </c>
       <c r="B77">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C77">
-        <v>112</v>
+        <v>264</v>
       </c>
       <c r="D77">
         <v>1</v>
@@ -3499,7 +3510,7 @@
       </c>
       <c r="J77" s="4">
         <f t="shared" si="4"/>
-        <v>4.2283298097251585</v>
+        <v>4.2460959013626596</v>
       </c>
       <c r="K77" s="4">
         <f t="shared" si="5"/>
@@ -3522,7 +3533,7 @@
         <v>67</v>
       </c>
       <c r="C78">
-        <v>154</v>
+        <v>331</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -3544,7 +3555,7 @@
       </c>
       <c r="J78" s="4">
         <f t="shared" si="4"/>
-        <v>5.2054648497876954</v>
+        <v>5.2232309414251956</v>
       </c>
       <c r="K78" s="4">
         <f t="shared" si="5"/>
@@ -3567,7 +3578,7 @@
         <v>102</v>
       </c>
       <c r="C79">
-        <v>186</v>
+        <v>433</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -3589,7 +3600,7 @@
       </c>
       <c r="J79" s="4">
         <f t="shared" si="4"/>
-        <v>6.7333487306127529</v>
+        <v>6.7511148222502531</v>
       </c>
       <c r="K79" s="4">
         <f t="shared" si="5"/>
@@ -3612,7 +3623,7 @@
         <v>117</v>
       </c>
       <c r="C80">
-        <v>240</v>
+        <v>550</v>
       </c>
       <c r="D80">
         <v>1</v>
@@ -3634,7 +3645,7 @@
       </c>
       <c r="J80" s="4">
         <f t="shared" si="4"/>
-        <v>8.456659619450317</v>
+        <v>8.4744257110878181</v>
       </c>
       <c r="K80" s="4">
         <f t="shared" si="5"/>
@@ -3657,7 +3668,7 @@
         <v>154</v>
       </c>
       <c r="C81">
-        <v>264</v>
+        <v>704</v>
       </c>
       <c r="D81">
         <v>1</v>
@@ -3679,7 +3690,7 @@
       </c>
       <c r="J81" s="4">
         <f t="shared" si="4"/>
-        <v>10.624122799225399</v>
+        <v>10.6418888908629</v>
       </c>
       <c r="K81" s="4">
         <f t="shared" si="5"/>
@@ -3702,7 +3713,7 @@
         <v>173</v>
       </c>
       <c r="C82">
-        <v>331</v>
+        <v>877</v>
       </c>
       <c r="D82">
         <v>5</v>
@@ -3724,7 +3735,7 @@
       </c>
       <c r="J82" s="4">
         <f t="shared" si="4"/>
-        <v>12.951480803737986</v>
+        <v>12.969246895375486</v>
       </c>
       <c r="K82" s="4">
         <f t="shared" si="5"/>
@@ -3747,7 +3758,7 @@
         <v>219</v>
       </c>
       <c r="C83">
-        <v>474</v>
+        <v>1096</v>
       </c>
       <c r="D83">
         <v>2</v>
@@ -3769,7 +3780,7 @@
       </c>
       <c r="J83" s="4">
         <f t="shared" si="4"/>
-        <v>15.953950290475598</v>
+        <v>15.971716382113099</v>
       </c>
       <c r="K83" s="4">
         <f t="shared" si="5"/>
@@ -3792,7 +3803,7 @@
         <v>278</v>
       </c>
       <c r="C84">
-        <v>652</v>
+        <v>1374</v>
       </c>
       <c r="D84">
         <v>4</v>
@@ -3837,7 +3848,7 @@
         <v>336</v>
       </c>
       <c r="C85">
-        <v>821</v>
+        <v>1710</v>
       </c>
       <c r="D85">
         <v>2</v>
@@ -3879,10 +3890,10 @@
         <v>43917</v>
       </c>
       <c r="B86">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C86">
-        <v>1092</v>
+        <v>2085</v>
       </c>
       <c r="D86">
         <v>3</v>
@@ -3904,7 +3915,7 @@
       </c>
       <c r="J86" s="4">
         <f t="shared" si="4"/>
-        <v>29.331817293513602</v>
+        <v>29.349583385151099</v>
       </c>
       <c r="K86" s="4">
         <f t="shared" si="5"/>
@@ -3924,10 +3935,10 @@
         <v>43918</v>
       </c>
       <c r="B87">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C87">
-        <v>1371</v>
+        <v>2469</v>
       </c>
       <c r="D87">
         <v>8</v>
@@ -3949,7 +3960,7 @@
       </c>
       <c r="J87" s="4">
         <f t="shared" si="4"/>
-        <v>34.057597669088779</v>
+        <v>34.093129852363781</v>
       </c>
       <c r="K87" s="4">
         <f t="shared" si="5"/>
@@ -3972,7 +3983,7 @@
         <v>465</v>
       </c>
       <c r="C88">
-        <v>1566</v>
+        <v>2934</v>
       </c>
       <c r="D88">
         <v>4</v>
@@ -3994,7 +4005,7 @@
       </c>
       <c r="J88" s="4">
         <f t="shared" si="4"/>
-        <v>39.582852168351486</v>
+        <v>39.618384351626489</v>
       </c>
       <c r="K88" s="4">
         <f t="shared" si="5"/>
@@ -4017,7 +4028,7 @@
         <v>538</v>
       </c>
       <c r="C89">
-        <v>1919</v>
+        <v>3472</v>
       </c>
       <c r="D89">
         <v>4</v>
@@ -4039,7 +4050,7 @@
       </c>
       <c r="J89" s="4">
         <f t="shared" si="4"/>
-        <v>46.067475616039225</v>
+        <v>46.103007799314227</v>
       </c>
       <c r="K89" s="4">
         <f t="shared" si="5"/>
@@ -4059,10 +4070,10 @@
         <v>43921</v>
       </c>
       <c r="B90">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C90">
-        <v>2287</v>
+        <v>4075</v>
       </c>
       <c r="D90">
         <v>5</v>
@@ -4084,7 +4095,7 @@
       </c>
       <c r="J90" s="4">
         <f t="shared" si="4"/>
-        <v>52.871888713201983</v>
+        <v>52.925186988114483</v>
       </c>
       <c r="K90" s="4">
         <f t="shared" si="5"/>
@@ -4107,7 +4118,7 @@
         <v>698</v>
       </c>
       <c r="C91">
-        <v>2900</v>
+        <v>4773</v>
       </c>
       <c r="D91">
         <v>4</v>
@@ -4129,7 +4140,7 @@
       </c>
       <c r="J91" s="4">
         <f t="shared" si="4"/>
-        <v>60.333647200952264</v>
+        <v>60.386945475864763</v>
       </c>
       <c r="K91" s="4">
         <f t="shared" si="5"/>
@@ -4152,7 +4163,7 @@
         <v>731</v>
       </c>
       <c r="C92">
-        <v>3503</v>
+        <v>5504</v>
       </c>
       <c r="D92">
         <v>10</v>
@@ -4174,7 +4185,7 @@
       </c>
       <c r="J92" s="4">
         <f t="shared" si="4"/>
-        <v>67.351253397765021</v>
+        <v>67.404551672677528</v>
       </c>
       <c r="K92" s="4">
         <f t="shared" si="5"/>
@@ -4197,7 +4208,7 @@
         <v>743</v>
       </c>
       <c r="C93">
-        <v>4157</v>
+        <v>6247</v>
       </c>
       <c r="D93">
         <v>10</v>
@@ -4219,7 +4230,7 @@
       </c>
       <c r="J93" s="4">
         <f t="shared" si="4"/>
-        <v>73.906941212002778</v>
+        <v>73.942473395277773</v>
       </c>
       <c r="K93" s="4">
         <f t="shared" si="5"/>
@@ -4239,10 +4250,10 @@
         <v>43925</v>
       </c>
       <c r="B94">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="C94">
-        <v>4846</v>
+        <v>7084</v>
       </c>
       <c r="D94">
         <v>9</v>
@@ -4264,7 +4275,7 @@
       </c>
       <c r="J94" s="4">
         <f t="shared" si="4"/>
-        <v>81.95498072379057</v>
+        <v>81.990512907065579</v>
       </c>
       <c r="K94" s="4">
         <f t="shared" si="5"/>
@@ -4287,7 +4298,7 @@
         <v>829</v>
       </c>
       <c r="C95">
-        <v>5424</v>
+        <v>7913</v>
       </c>
       <c r="D95">
         <v>11</v>
@@ -4309,7 +4320,7 @@
       </c>
       <c r="J95" s="4">
         <f t="shared" si="4"/>
-        <v>88.421838079840811</v>
+        <v>88.45737026311582</v>
       </c>
       <c r="K95" s="4">
         <f t="shared" si="5"/>
@@ -4329,10 +4340,10 @@
         <v>43927</v>
       </c>
       <c r="B96">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="C96">
-        <v>5955</v>
+        <v>8717</v>
       </c>
       <c r="D96">
         <v>6</v>
@@ -4354,7 +4365,7 @@
       </c>
       <c r="J96" s="4">
         <f t="shared" si="4"/>
-        <v>93.112086272140999</v>
+        <v>93.183150638690989</v>
       </c>
       <c r="K96" s="4">
         <f t="shared" si="5"/>
@@ -4374,10 +4385,10 @@
         <v>43928</v>
       </c>
       <c r="B97">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="C97">
-        <v>6964</v>
+        <v>9629</v>
       </c>
       <c r="D97">
         <v>8</v>
@@ -4399,7 +4410,7 @@
       </c>
       <c r="J97" s="4">
         <f t="shared" si="4"/>
-        <v>98.584042496491193</v>
+        <v>98.672872954678695</v>
       </c>
       <c r="K97" s="4">
         <f t="shared" si="5"/>
@@ -4419,10 +4430,10 @@
         <v>43929</v>
       </c>
       <c r="B98">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="C98">
-        <v>7886</v>
+        <v>10603</v>
       </c>
       <c r="D98">
         <v>4</v>
@@ -4444,7 +4455,7 @@
       </c>
       <c r="J98" s="4">
         <f t="shared" si="4"/>
-        <v>103.43418551352887</v>
+        <v>103.57631424662888</v>
       </c>
       <c r="K98" s="4">
         <f t="shared" si="5"/>
@@ -4467,7 +4478,7 @@
         <v>874</v>
       </c>
       <c r="C99">
-        <v>8876</v>
+        <v>11477</v>
       </c>
       <c r="D99">
         <v>18</v>
@@ -4489,7 +4500,7 @@
       </c>
       <c r="J99" s="4">
         <f t="shared" si="4"/>
-        <v>105.97473661769148</v>
+        <v>106.11686535079149</v>
       </c>
       <c r="K99" s="4">
         <f t="shared" si="5"/>
@@ -4512,7 +4523,7 @@
         <v>851</v>
       </c>
       <c r="C100">
-        <v>9911</v>
+        <v>12328</v>
       </c>
       <c r="D100">
         <v>11</v>
@@ -4534,7 +4545,7 @@
       </c>
       <c r="J100" s="4">
         <f t="shared" si="4"/>
-        <v>107.89347451454155</v>
+        <v>108.03560324764155</v>
       </c>
       <c r="K100" s="4">
         <f t="shared" si="5"/>
@@ -4554,10 +4565,10 @@
         <v>43932</v>
       </c>
       <c r="B101">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="C101">
-        <v>10656</v>
+        <v>13189</v>
       </c>
       <c r="D101">
         <v>11</v>
@@ -4579,7 +4590,7 @@
       </c>
       <c r="J101" s="4">
         <f t="shared" si="4"/>
-        <v>108.31986071384156</v>
+        <v>108.46198944694157</v>
       </c>
       <c r="K101" s="4">
         <f t="shared" si="5"/>
@@ -4602,7 +4613,7 @@
         <v>858</v>
       </c>
       <c r="C102">
-        <v>11260</v>
+        <v>14047</v>
       </c>
       <c r="D102">
         <v>16</v>
@@ -4617,14 +4628,14 @@
         <v>767</v>
       </c>
       <c r="H102">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I102">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="J102" s="4">
         <f t="shared" si="4"/>
-        <v>108.83507737132908</v>
+        <v>108.97720610442909</v>
       </c>
       <c r="K102" s="4">
         <f t="shared" si="5"/>
@@ -4636,7 +4647,7 @@
       </c>
       <c r="M102" s="4">
         <f t="shared" si="7"/>
-        <v>78.657743664562787</v>
+        <v>79.292080307018935</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
@@ -4644,10 +4655,10 @@
         <v>43934</v>
       </c>
       <c r="B103">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="C103">
-        <v>11954</v>
+        <v>14850</v>
       </c>
       <c r="D103">
         <v>7</v>
@@ -4665,11 +4676,11 @@
         <v>43</v>
       </c>
       <c r="I103">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="J103" s="4">
         <f t="shared" si="4"/>
-        <v>108.83507737132908</v>
+        <v>108.95944001279159</v>
       </c>
       <c r="K103" s="4">
         <f t="shared" si="5"/>
@@ -4681,7 +4692,7 @@
       </c>
       <c r="M103" s="4">
         <f t="shared" si="7"/>
-        <v>85.952615052808525</v>
+        <v>86.586951695264688</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
@@ -4692,7 +4703,7 @@
         <v>771</v>
       </c>
       <c r="C104">
-        <v>12961</v>
+        <v>15621</v>
       </c>
       <c r="D104">
         <v>12</v>
@@ -4710,11 +4721,11 @@
         <v>26</v>
       </c>
       <c r="I104">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="J104" s="4">
         <f t="shared" si="4"/>
-        <v>106.36559063371649</v>
+        <v>106.454421091904</v>
       </c>
       <c r="K104" s="4">
         <f t="shared" si="5"/>
@@ -4726,7 +4737,7 @@
       </c>
       <c r="M104" s="4">
         <f t="shared" si="7"/>
-        <v>84.049605125440081</v>
+        <v>84.683941767896229</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
@@ -4737,7 +4748,7 @@
         <v>784</v>
       </c>
       <c r="C105">
-        <v>13691</v>
+        <v>16405</v>
       </c>
       <c r="D105">
         <v>16</v>
@@ -4755,11 +4766,11 @@
         <v>38</v>
       </c>
       <c r="I105">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="J105" s="4">
         <f t="shared" si="4"/>
-        <v>103.04333149750387</v>
+        <v>103.07886368077887</v>
       </c>
       <c r="K105" s="4">
         <f t="shared" si="5"/>
@@ -4771,7 +4782,7 @@
       </c>
       <c r="M105" s="4">
         <f t="shared" si="7"/>
-        <v>82.780931840527771</v>
+        <v>83.415268482983919</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
@@ -4782,7 +4793,7 @@
         <v>751</v>
       </c>
       <c r="C106">
-        <v>14597</v>
+        <v>17156</v>
       </c>
       <c r="D106">
         <v>11</v>
@@ -4800,11 +4811,11 @@
         <v>35</v>
       </c>
       <c r="I106">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="J106" s="4">
         <f t="shared" si="4"/>
-        <v>100.85810222609129</v>
+        <v>100.89363440936629</v>
       </c>
       <c r="K106" s="4">
         <f t="shared" si="5"/>
@@ -4816,7 +4827,7 @@
       </c>
       <c r="M106" s="4">
         <f t="shared" si="7"/>
-        <v>80.243585270703164</v>
+        <v>80.877921913159312</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
@@ -4827,7 +4838,7 @@
         <v>744</v>
       </c>
       <c r="C107">
-        <v>15423</v>
+        <v>17900</v>
       </c>
       <c r="D107">
         <v>9</v>
@@ -4845,11 +4856,11 @@
         <v>29</v>
       </c>
       <c r="I107">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="J107" s="4">
         <f t="shared" si="4"/>
-        <v>98.957130420878713</v>
+        <v>98.992662604153708</v>
       </c>
       <c r="K107" s="4">
         <f t="shared" si="5"/>
@@ -4861,7 +4872,7 @@
       </c>
       <c r="M107" s="4">
         <f t="shared" si="7"/>
-        <v>81.512258555615475</v>
+        <v>82.146595198071623</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
@@ -4872,7 +4883,7 @@
         <v>706</v>
       </c>
       <c r="C108">
-        <v>16427</v>
+        <v>18606</v>
       </c>
       <c r="D108">
         <v>10</v>
@@ -4890,11 +4901,11 @@
         <v>32</v>
       </c>
       <c r="I108">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="J108" s="4">
         <f t="shared" si="4"/>
-        <v>96.221152308703608</v>
+        <v>96.238918400341106</v>
       </c>
       <c r="K108" s="4">
         <f t="shared" si="5"/>
@@ -4906,7 +4917,7 @@
       </c>
       <c r="M108" s="4">
         <f t="shared" si="7"/>
-        <v>81.829426876843542</v>
+        <v>82.463763519299704</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
@@ -4917,7 +4928,7 @@
         <v>682</v>
       </c>
       <c r="C109">
-        <v>16807</v>
+        <v>19288</v>
       </c>
       <c r="D109">
         <v>10</v>
@@ -4935,11 +4946,11 @@
         <v>26</v>
       </c>
       <c r="I109">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="J109" s="4">
         <f t="shared" si="4"/>
-        <v>93.094320180503487</v>
+        <v>93.112086272140999</v>
       </c>
       <c r="K109" s="4">
         <f t="shared" si="5"/>
@@ -4962,7 +4973,7 @@
         <v>684</v>
       </c>
       <c r="C110">
-        <v>17343</v>
+        <v>19972</v>
       </c>
       <c r="D110">
         <v>12</v>
@@ -4980,7 +4991,7 @@
         <v>25</v>
       </c>
       <c r="I110">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="J110" s="4">
         <f t="shared" si="4"/>
@@ -5007,7 +5018,7 @@
         <v>649</v>
       </c>
       <c r="C111">
-        <v>18459</v>
+        <v>20621</v>
       </c>
       <c r="D111">
         <v>13</v>
@@ -5025,7 +5036,7 @@
         <v>30</v>
       </c>
       <c r="I111">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="J111" s="4">
         <f t="shared" si="4"/>
@@ -5052,7 +5063,7 @@
         <v>642</v>
       </c>
       <c r="C112">
-        <v>19184</v>
+        <v>21263</v>
       </c>
       <c r="D112">
         <v>19</v>
@@ -5070,7 +5081,7 @@
         <v>23</v>
       </c>
       <c r="I112">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="J112" s="4">
         <f t="shared" si="4"/>
@@ -5097,7 +5108,7 @@
         <v>592</v>
       </c>
       <c r="C113">
-        <v>19778</v>
+        <v>21855</v>
       </c>
       <c r="D113">
         <v>16</v>
@@ -5115,7 +5126,7 @@
         <v>18</v>
       </c>
       <c r="I113">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="J113" s="4">
         <f t="shared" si="4"/>
@@ -5142,7 +5153,7 @@
         <v>602</v>
       </c>
       <c r="C114">
-        <v>20599</v>
+        <v>22457</v>
       </c>
       <c r="D114">
         <v>11</v>
@@ -5160,7 +5171,7 @@
         <v>31</v>
       </c>
       <c r="I114">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="J114" s="4">
         <f t="shared" si="4"/>
@@ -5184,10 +5195,10 @@
         <v>43946</v>
       </c>
       <c r="B115">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C115">
-        <v>21328</v>
+        <v>23011</v>
       </c>
       <c r="D115">
         <v>15</v>
@@ -5205,11 +5216,11 @@
         <v>29</v>
       </c>
       <c r="I115">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="J115" s="4">
         <f t="shared" si="4"/>
-        <v>78.27739975482794</v>
+        <v>78.259633663190442</v>
       </c>
       <c r="K115" s="4">
         <f t="shared" si="5"/>
@@ -5229,10 +5240,10 @@
         <v>43947</v>
       </c>
       <c r="B116">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C116">
-        <v>21655</v>
+        <v>23571</v>
       </c>
       <c r="D116">
         <v>14</v>
@@ -5250,7 +5261,7 @@
         <v>16</v>
       </c>
       <c r="I116">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="J116" s="4">
         <f t="shared" si="4"/>
@@ -5277,7 +5288,7 @@
         <v>506</v>
       </c>
       <c r="C117">
-        <v>21944</v>
+        <v>24077</v>
       </c>
       <c r="D117">
         <v>13</v>
@@ -5295,7 +5306,7 @@
         <v>16</v>
       </c>
       <c r="I117">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="J117" s="4">
         <f t="shared" si="4"/>
@@ -5319,10 +5330,10 @@
         <v>43949</v>
       </c>
       <c r="B118">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C118">
-        <v>22806</v>
+        <v>24576</v>
       </c>
       <c r="D118">
         <v>6</v>
@@ -5340,11 +5351,11 @@
         <v>15</v>
       </c>
       <c r="I118">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="J118" s="4">
         <f t="shared" si="4"/>
-        <v>70.247126334677631</v>
+        <v>70.264892426315143</v>
       </c>
       <c r="K118" s="4">
         <f t="shared" si="5"/>
@@ -5367,7 +5378,7 @@
         <v>493</v>
       </c>
       <c r="C119">
-        <v>23410</v>
+        <v>25069</v>
       </c>
       <c r="D119">
         <v>14</v>
@@ -5385,11 +5396,11 @@
         <v>26</v>
       </c>
       <c r="I119">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="J119" s="4">
         <f t="shared" si="4"/>
-        <v>67.599978680690043</v>
+        <v>67.617744772327541</v>
       </c>
       <c r="K119" s="4">
         <f t="shared" si="5"/>
@@ -5409,10 +5420,10 @@
         <v>43951</v>
       </c>
       <c r="B120">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C120">
-        <v>23953</v>
+        <v>25550</v>
       </c>
       <c r="D120">
         <v>8</v>
@@ -5430,11 +5441,11 @@
         <v>16</v>
       </c>
       <c r="I120">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="J120" s="4">
         <f t="shared" si="4"/>
-        <v>65.610176417289964</v>
+        <v>65.645708600564959</v>
       </c>
       <c r="K120" s="4">
         <f t="shared" si="5"/>
@@ -5457,7 +5468,7 @@
         <v>478</v>
       </c>
       <c r="C121">
-        <v>24576</v>
+        <v>26028</v>
       </c>
       <c r="D121">
         <v>12</v>
@@ -5475,11 +5486,11 @@
         <v>29</v>
       </c>
       <c r="I121">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="J121" s="4">
         <f t="shared" si="4"/>
-        <v>63.407181054239878</v>
+        <v>63.44271323751488</v>
       </c>
       <c r="K121" s="4">
         <f t="shared" si="5"/>
@@ -5502,7 +5513,7 @@
         <v>423</v>
       </c>
       <c r="C122">
-        <v>25061</v>
+        <v>26451</v>
       </c>
       <c r="D122">
         <v>12</v>
@@ -5520,11 +5531,11 @@
         <v>14</v>
       </c>
       <c r="I122">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="J122" s="4">
         <f t="shared" si="4"/>
-        <v>61.062056958089791</v>
+        <v>61.11535523300229</v>
       </c>
       <c r="K122" s="4">
         <f t="shared" si="5"/>
@@ -5547,7 +5558,7 @@
         <v>387</v>
       </c>
       <c r="C123">
-        <v>25283</v>
+        <v>26838</v>
       </c>
       <c r="D123">
         <v>11</v>
@@ -5565,11 +5576,11 @@
         <v>14</v>
       </c>
       <c r="I123">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="J123" s="4">
         <f t="shared" si="4"/>
-        <v>58.006289196439674</v>
+        <v>58.041821379714676</v>
       </c>
       <c r="K123" s="4">
         <f t="shared" si="5"/>
@@ -5592,7 +5603,7 @@
         <v>411</v>
       </c>
       <c r="C124">
-        <v>25530</v>
+        <v>27249</v>
       </c>
       <c r="D124">
         <v>9</v>
@@ -5610,11 +5621,11 @@
         <v>23</v>
       </c>
       <c r="I124">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="J124" s="4">
         <f t="shared" si="4"/>
-        <v>56.318510490877109</v>
+        <v>56.354042674152112</v>
       </c>
       <c r="K124" s="4">
         <f t="shared" si="5"/>
@@ -5637,7 +5648,7 @@
         <v>390</v>
       </c>
       <c r="C125">
-        <v>26169</v>
+        <v>27639</v>
       </c>
       <c r="D125">
         <v>6</v>
@@ -5655,11 +5666,11 @@
         <v>17</v>
       </c>
       <c r="I125">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="J125" s="4">
         <f t="shared" si="4"/>
-        <v>54.399772594027041</v>
+        <v>54.417538685664539</v>
       </c>
       <c r="K125" s="4">
         <f t="shared" si="5"/>
@@ -5679,10 +5690,10 @@
         <v>43957</v>
       </c>
       <c r="B126">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C126">
-        <v>26698</v>
+        <v>28031</v>
       </c>
       <c r="D126">
         <v>3</v>
@@ -5700,11 +5711,11 @@
         <v>23</v>
       </c>
       <c r="I126">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="J126" s="4">
         <f t="shared" si="4"/>
-        <v>52.587631247001973</v>
+        <v>52.623163430276975</v>
       </c>
       <c r="K126" s="4">
         <f t="shared" si="5"/>
@@ -5727,7 +5738,7 @@
         <v>399</v>
       </c>
       <c r="C127">
-        <v>27075</v>
+        <v>28430</v>
       </c>
       <c r="D127">
         <v>3</v>
@@ -5745,11 +5756,11 @@
         <v>19</v>
       </c>
       <c r="I127">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="J127" s="4">
         <f t="shared" si="4"/>
-        <v>51.148577824364416</v>
+        <v>51.166343916001921</v>
       </c>
       <c r="K127" s="4">
         <f t="shared" si="5"/>
@@ -5769,10 +5780,10 @@
         <v>43959</v>
       </c>
       <c r="B128">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C128">
-        <v>27573</v>
+        <v>28758</v>
       </c>
       <c r="D128">
         <v>6</v>
@@ -5790,11 +5801,11 @@
         <v>13</v>
       </c>
       <c r="I128">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="J128" s="4">
         <f t="shared" si="4"/>
-        <v>48.465897987101819</v>
+        <v>48.501430170376821</v>
       </c>
       <c r="K128" s="4">
         <f t="shared" si="5"/>
@@ -5817,7 +5828,7 @@
         <v>330</v>
       </c>
       <c r="C129">
-        <v>27799</v>
+        <v>29088</v>
       </c>
       <c r="D129">
         <v>7</v>
@@ -5835,11 +5846,11 @@
         <v>7</v>
       </c>
       <c r="I129">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="J129" s="4">
         <f t="shared" si="4"/>
-        <v>46.813651464814257</v>
+        <v>46.849183648089259</v>
       </c>
       <c r="K129" s="4">
         <f t="shared" si="5"/>
@@ -5859,10 +5870,10 @@
         <v>43961</v>
       </c>
       <c r="B130">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C130">
-        <v>27989</v>
+        <v>29388</v>
       </c>
       <c r="D130">
         <v>10</v>
@@ -5880,11 +5891,11 @@
         <v>10</v>
       </c>
       <c r="I130">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="J130" s="4">
         <f t="shared" si="4"/>
-        <v>45.250235400714196</v>
+        <v>45.303533675626703</v>
       </c>
       <c r="K130" s="4">
         <f t="shared" si="5"/>
@@ -5907,7 +5918,7 @@
         <v>260</v>
       </c>
       <c r="C131">
-        <v>28163</v>
+        <v>29648</v>
       </c>
       <c r="D131">
         <v>2</v>
@@ -5925,11 +5936,11 @@
         <v>15</v>
       </c>
       <c r="I131">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="J131" s="4">
         <f t="shared" si="4"/>
-        <v>42.567555563451599</v>
+        <v>42.620853838364098</v>
       </c>
       <c r="K131" s="4">
         <f t="shared" si="5"/>
@@ -5952,7 +5963,7 @@
         <v>275</v>
       </c>
       <c r="C132">
-        <v>28702</v>
+        <v>29923</v>
       </c>
       <c r="D132">
         <v>4</v>
@@ -5970,11 +5981,11 @@
         <v>11</v>
       </c>
       <c r="I132">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="J132" s="4">
         <f t="shared" si="4"/>
-        <v>40.524455025139019</v>
+        <v>40.577753300051519</v>
       </c>
       <c r="K132" s="4">
         <f t="shared" si="5"/>
@@ -5997,7 +6008,7 @@
         <v>255</v>
       </c>
       <c r="C133">
-        <v>29064</v>
+        <v>30178</v>
       </c>
       <c r="D133">
         <v>3</v>
@@ -6015,11 +6026,11 @@
         <v>16</v>
       </c>
       <c r="I133">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="J133" s="4">
         <f t="shared" si="4"/>
-        <v>38.108266562438928</v>
+        <v>38.14379874571393</v>
       </c>
       <c r="K133" s="4">
         <f t="shared" si="5"/>
@@ -6042,7 +6053,7 @@
         <v>277</v>
       </c>
       <c r="C134">
-        <v>29367</v>
+        <v>30455</v>
       </c>
       <c r="D134">
         <v>10</v>
@@ -6060,11 +6071,11 @@
         <v>12</v>
       </c>
       <c r="I134">
-        <v>1212</v>
+        <v>1214</v>
       </c>
       <c r="J134" s="4">
         <f t="shared" si="4"/>
-        <v>35.940803382663852</v>
+        <v>35.976335565938847</v>
       </c>
       <c r="K134" s="4">
         <f t="shared" si="5"/>
@@ -6087,7 +6098,7 @@
         <v>269</v>
       </c>
       <c r="C135">
-        <v>29647</v>
+        <v>30724</v>
       </c>
       <c r="D135">
         <v>3</v>
@@ -6105,11 +6116,11 @@
         <v>16</v>
       </c>
       <c r="I135">
-        <v>1228</v>
+        <v>1230</v>
       </c>
       <c r="J135" s="4">
         <f t="shared" ref="J135:J198" si="8">SUM(B129:B135)/(56.287)</f>
-        <v>34.91037006768881</v>
+        <v>34.928136159326307</v>
       </c>
       <c r="K135" s="4">
         <f t="shared" ref="K135:K198" si="9">SUM(D129:D135)/(1.8937)</f>
@@ -6132,7 +6143,7 @@
         <v>268</v>
       </c>
       <c r="C136">
-        <v>29995</v>
+        <v>30992</v>
       </c>
       <c r="D136">
         <v>4</v>
@@ -6150,11 +6161,11 @@
         <v>13</v>
       </c>
       <c r="I136">
-        <v>1241</v>
+        <v>1243</v>
       </c>
       <c r="J136" s="4">
         <f t="shared" si="8"/>
-        <v>33.80887238616377</v>
+        <v>33.826638477801268</v>
       </c>
       <c r="K136" s="4">
         <f t="shared" si="9"/>
@@ -6177,7 +6188,7 @@
         <v>222</v>
       </c>
       <c r="C137">
-        <v>30038</v>
+        <v>31214</v>
       </c>
       <c r="D137">
         <v>7</v>
@@ -6195,7 +6206,7 @@
         <v>11</v>
       </c>
       <c r="I137">
-        <v>1252</v>
+        <v>1254</v>
       </c>
       <c r="J137" s="4">
         <f t="shared" si="8"/>
@@ -6222,7 +6233,7 @@
         <v>253</v>
       </c>
       <c r="C138">
-        <v>30172</v>
+        <v>31467</v>
       </c>
       <c r="D138">
         <v>7</v>
@@ -6240,7 +6251,7 @@
         <v>10</v>
       </c>
       <c r="I138">
-        <v>1262</v>
+        <v>1264</v>
       </c>
       <c r="J138" s="4">
         <f t="shared" si="8"/>
@@ -6264,10 +6275,10 @@
         <v>43970</v>
       </c>
       <c r="B139">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C139">
-        <v>30619</v>
+        <v>31697</v>
       </c>
       <c r="D139">
         <v>5</v>
@@ -6285,11 +6296,11 @@
         <v>11</v>
       </c>
       <c r="I139">
-        <v>1273</v>
+        <v>1275</v>
       </c>
       <c r="J139" s="4">
         <f t="shared" si="8"/>
-        <v>31.499280473288682</v>
+        <v>31.517046564926183</v>
       </c>
       <c r="K139" s="4">
         <f t="shared" si="9"/>
@@ -6312,7 +6323,7 @@
         <v>235</v>
       </c>
       <c r="C140">
-        <v>30878</v>
+        <v>31932</v>
       </c>
       <c r="D140">
         <v>5</v>
@@ -6330,11 +6341,11 @@
         <v>7</v>
       </c>
       <c r="I140">
-        <v>1280</v>
+        <v>1282</v>
       </c>
       <c r="J140" s="4">
         <f t="shared" si="8"/>
-        <v>31.143958640538667</v>
+        <v>31.161724732176168</v>
       </c>
       <c r="K140" s="4">
         <f t="shared" si="9"/>
@@ -6357,7 +6368,7 @@
         <v>201</v>
       </c>
       <c r="C141">
-        <v>31098</v>
+        <v>32133</v>
       </c>
       <c r="D141">
         <v>4</v>
@@ -6375,11 +6386,11 @@
         <v>9</v>
       </c>
       <c r="I141">
-        <v>1289</v>
+        <v>1291</v>
       </c>
       <c r="J141" s="4">
         <f t="shared" si="8"/>
-        <v>29.793735676088616</v>
+        <v>29.811501767726117</v>
       </c>
       <c r="K141" s="4">
         <f t="shared" si="9"/>
@@ -6402,7 +6413,7 @@
         <v>195</v>
       </c>
       <c r="C142">
-        <v>31355</v>
+        <v>32328</v>
       </c>
       <c r="D142">
         <v>1</v>
@@ -6420,11 +6431,11 @@
         <v>10</v>
       </c>
       <c r="I142">
-        <v>1299</v>
+        <v>1301</v>
       </c>
       <c r="J142" s="4">
         <f t="shared" si="8"/>
-        <v>28.479044894913567</v>
+        <v>28.496810986551068</v>
       </c>
       <c r="K142" s="4">
         <f t="shared" si="9"/>
@@ -6444,10 +6455,10 @@
         <v>43974</v>
       </c>
       <c r="B143">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C143">
-        <v>31552</v>
+        <v>32526</v>
       </c>
       <c r="D143">
         <v>2</v>
@@ -6465,11 +6476,11 @@
         <v>7</v>
       </c>
       <c r="I143">
-        <v>1306</v>
+        <v>1308</v>
       </c>
       <c r="J143" s="4">
         <f t="shared" si="8"/>
-        <v>27.217652388651022</v>
+        <v>27.253184571926024</v>
       </c>
       <c r="K143" s="4">
         <f t="shared" si="9"/>
@@ -6492,7 +6503,7 @@
         <v>169</v>
       </c>
       <c r="C144">
-        <v>31914</v>
+        <v>32695</v>
       </c>
       <c r="D144">
         <v>7</v>
@@ -6510,11 +6521,11 @@
         <v>12</v>
       </c>
       <c r="I144">
-        <v>1318</v>
+        <v>1320</v>
       </c>
       <c r="J144" s="4">
         <f t="shared" si="8"/>
-        <v>26.276049531863485</v>
+        <v>26.311581715138487</v>
       </c>
       <c r="K144" s="4">
         <f t="shared" si="9"/>
@@ -6537,7 +6548,7 @@
         <v>176</v>
       </c>
       <c r="C145">
-        <v>32000</v>
+        <v>32871</v>
       </c>
       <c r="D145">
         <v>1</v>
@@ -6555,11 +6566,11 @@
         <v>10</v>
       </c>
       <c r="I145">
-        <v>1328</v>
+        <v>1330</v>
       </c>
       <c r="J145" s="4">
         <f t="shared" si="8"/>
-        <v>24.908060475775933</v>
+        <v>24.943592659050935</v>
       </c>
       <c r="K145" s="4">
         <f t="shared" si="9"/>
@@ -6582,7 +6593,7 @@
         <v>188</v>
       </c>
       <c r="C146">
-        <v>32105</v>
+        <v>33059</v>
       </c>
       <c r="D146">
         <v>1</v>
@@ -6600,11 +6611,11 @@
         <v>10</v>
       </c>
       <c r="I146">
-        <v>1338</v>
+        <v>1340</v>
       </c>
       <c r="J146" s="4">
         <f t="shared" si="8"/>
-        <v>24.179650718638406</v>
+        <v>24.197416810275907</v>
       </c>
       <c r="K146" s="4">
         <f t="shared" si="9"/>
@@ -6627,7 +6638,7 @@
         <v>170</v>
       </c>
       <c r="C147">
-        <v>32501</v>
+        <v>33229</v>
       </c>
       <c r="D147">
         <v>4</v>
@@ -6645,11 +6656,11 @@
         <v>6</v>
       </c>
       <c r="I147">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="J147" s="4">
         <f t="shared" si="8"/>
-        <v>23.024854762200864</v>
+        <v>23.042620853838365</v>
       </c>
       <c r="K147" s="4">
         <f t="shared" si="9"/>
@@ -6672,7 +6683,7 @@
         <v>182</v>
       </c>
       <c r="C148">
-        <v>32816</v>
+        <v>33411</v>
       </c>
       <c r="D148">
         <v>3</v>
@@ -6690,11 +6701,11 @@
         <v>16</v>
       </c>
       <c r="I148">
-        <v>1360</v>
+        <v>1362</v>
       </c>
       <c r="J148" s="4">
         <f t="shared" si="8"/>
-        <v>22.68729902108835</v>
+        <v>22.705065112725851</v>
       </c>
       <c r="K148" s="4">
         <f t="shared" si="9"/>
@@ -6717,7 +6728,7 @@
         <v>163</v>
       </c>
       <c r="C149">
-        <v>33062</v>
+        <v>33574</v>
       </c>
       <c r="D149">
         <v>1</v>
@@ -6735,11 +6746,11 @@
         <v>11</v>
       </c>
       <c r="I149">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J149" s="4">
         <f t="shared" si="8"/>
-        <v>22.118784088688329</v>
+        <v>22.13655018032583</v>
       </c>
       <c r="K149" s="4">
         <f t="shared" si="9"/>
@@ -6759,10 +6770,10 @@
         <v>43981</v>
       </c>
       <c r="B150">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C150">
-        <v>33179</v>
+        <v>33719</v>
       </c>
       <c r="D150">
         <v>2</v>
@@ -6780,11 +6791,11 @@
         <v>10</v>
       </c>
       <c r="I150">
-        <v>1381</v>
+        <v>1383</v>
       </c>
       <c r="J150" s="4">
         <f t="shared" si="8"/>
-        <v>21.177181231900793</v>
+        <v>21.194947323538294</v>
       </c>
       <c r="K150" s="4">
         <f t="shared" si="9"/>
@@ -6807,7 +6818,7 @@
         <v>112</v>
       </c>
       <c r="C151">
-        <v>33218</v>
+        <v>33831</v>
       </c>
       <c r="D151">
         <v>1</v>
@@ -6825,11 +6836,11 @@
         <v>7</v>
       </c>
       <c r="I151">
-        <v>1388</v>
+        <v>1390</v>
       </c>
       <c r="J151" s="4">
         <f t="shared" si="8"/>
-        <v>20.164514008563255</v>
+        <v>20.182280100200757</v>
       </c>
       <c r="K151" s="4">
         <f t="shared" si="9"/>
@@ -6852,7 +6863,7 @@
         <v>122</v>
       </c>
       <c r="C152">
-        <v>33297</v>
+        <v>33953</v>
       </c>
       <c r="D152">
         <v>1</v>
@@ -6870,11 +6881,11 @@
         <v>9</v>
       </c>
       <c r="I152">
-        <v>1397</v>
+        <v>1399</v>
       </c>
       <c r="J152" s="4">
         <f t="shared" si="8"/>
-        <v>19.205145060138221</v>
+        <v>19.222911151775723</v>
       </c>
       <c r="K152" s="4">
         <f t="shared" si="9"/>
@@ -6894,10 +6905,10 @@
         <v>43984</v>
       </c>
       <c r="B153">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C153">
-        <v>33525</v>
+        <v>34109</v>
       </c>
       <c r="D153">
         <v>2</v>
@@ -6915,11 +6926,11 @@
         <v>5</v>
       </c>
       <c r="I153">
-        <v>1402</v>
+        <v>1404</v>
       </c>
       <c r="J153" s="4">
         <f t="shared" si="8"/>
-        <v>18.6188640361007</v>
+        <v>18.654396219375698</v>
       </c>
       <c r="K153" s="4">
         <f t="shared" si="9"/>
@@ -6939,10 +6950,10 @@
         <v>43985</v>
       </c>
       <c r="B154">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C154">
-        <v>33743</v>
+        <v>34247</v>
       </c>
       <c r="D154">
         <v>2</v>
@@ -6960,11 +6971,11 @@
         <v>7</v>
       </c>
       <c r="I154">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="J154" s="4">
         <f t="shared" si="8"/>
-        <v>18.032583012063178</v>
+        <v>18.085881286975678</v>
       </c>
       <c r="K154" s="4">
         <f t="shared" si="9"/>
@@ -6987,7 +6998,7 @@
         <v>120</v>
       </c>
       <c r="C155">
-        <v>33855</v>
+        <v>34367</v>
       </c>
       <c r="D155">
         <v>0</v>
@@ -7005,11 +7016,11 @@
         <v>12</v>
       </c>
       <c r="I155">
-        <v>1421</v>
+        <v>1423</v>
       </c>
       <c r="J155" s="4">
         <f t="shared" si="8"/>
-        <v>16.931085330538135</v>
+        <v>16.984383605450638</v>
       </c>
       <c r="K155" s="4">
         <f t="shared" si="9"/>
@@ -7032,7 +7043,7 @@
         <v>108</v>
       </c>
       <c r="C156">
-        <v>34094</v>
+        <v>34475</v>
       </c>
       <c r="D156">
         <v>1</v>
@@ -7050,11 +7061,11 @@
         <v>4</v>
       </c>
       <c r="I156">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="J156" s="4">
         <f t="shared" si="8"/>
-        <v>15.953950290475598</v>
+        <v>16.0072485653881</v>
       </c>
       <c r="K156" s="4">
         <f t="shared" si="9"/>
@@ -7077,7 +7088,7 @@
         <v>99</v>
       </c>
       <c r="C157">
-        <v>34220</v>
+        <v>34574</v>
       </c>
       <c r="D157">
         <v>0</v>
@@ -7095,11 +7106,11 @@
         <v>9</v>
       </c>
       <c r="I157">
-        <v>1434</v>
+        <v>1436</v>
       </c>
       <c r="J157" s="4">
         <f t="shared" si="8"/>
-        <v>15.154476166788069</v>
+        <v>15.190008350063071</v>
       </c>
       <c r="K157" s="4">
         <f t="shared" si="9"/>
@@ -7122,7 +7133,7 @@
         <v>112</v>
       </c>
       <c r="C158">
-        <v>34269</v>
+        <v>34686</v>
       </c>
       <c r="D158">
         <v>0</v>
@@ -7140,11 +7151,11 @@
         <v>8</v>
       </c>
       <c r="I158">
-        <v>1442</v>
+        <v>1444</v>
       </c>
       <c r="J158" s="4">
         <f t="shared" si="8"/>
-        <v>15.154476166788069</v>
+        <v>15.190008350063071</v>
       </c>
       <c r="K158" s="4">
         <f t="shared" si="9"/>
@@ -7167,7 +7178,7 @@
         <v>111</v>
       </c>
       <c r="C159">
-        <v>34313</v>
+        <v>34797</v>
       </c>
       <c r="D159">
         <v>0</v>
@@ -7185,11 +7196,11 @@
         <v>7</v>
       </c>
       <c r="I159">
-        <v>1449</v>
+        <v>1451</v>
       </c>
       <c r="J159" s="4">
         <f t="shared" si="8"/>
-        <v>14.959049158775562</v>
+        <v>14.994581342050562</v>
       </c>
       <c r="K159" s="4">
         <f t="shared" si="9"/>
@@ -7212,7 +7223,7 @@
         <v>85</v>
       </c>
       <c r="C160">
-        <v>34492</v>
+        <v>34882</v>
       </c>
       <c r="D160">
         <v>0</v>
@@ -7230,11 +7241,11 @@
         <v>4</v>
       </c>
       <c r="I160">
-        <v>1453</v>
+        <v>1455</v>
       </c>
       <c r="J160" s="4">
         <f t="shared" si="8"/>
-        <v>13.715422744150514</v>
+        <v>13.733188835788015</v>
       </c>
       <c r="K160" s="4">
         <f t="shared" si="9"/>
@@ -7254,10 +7265,10 @@
         <v>43992</v>
       </c>
       <c r="B161">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C161">
-        <v>34635</v>
+        <v>34979</v>
       </c>
       <c r="D161">
         <v>0</v>
@@ -7275,11 +7286,11 @@
         <v>7</v>
       </c>
       <c r="I161">
-        <v>1460</v>
+        <v>1462</v>
       </c>
       <c r="J161" s="4">
         <f t="shared" si="8"/>
-        <v>12.987012987012987</v>
+        <v>13.004779078650488</v>
       </c>
       <c r="K161" s="4">
         <f t="shared" si="9"/>
@@ -7302,7 +7313,7 @@
         <v>71</v>
       </c>
       <c r="C162">
-        <v>34699</v>
+        <v>35050</v>
       </c>
       <c r="D162">
         <v>2</v>
@@ -7320,11 +7331,11 @@
         <v>5</v>
       </c>
       <c r="I162">
-        <v>1465</v>
+        <v>1467</v>
       </c>
       <c r="J162" s="4">
         <f t="shared" si="8"/>
-        <v>12.116474496775455</v>
+        <v>12.134240588412956</v>
       </c>
       <c r="K162" s="4">
         <f t="shared" si="9"/>
@@ -7347,7 +7358,7 @@
         <v>72</v>
       </c>
       <c r="C163">
-        <v>34816</v>
+        <v>35122</v>
       </c>
       <c r="D163">
         <v>1</v>
@@ -7365,11 +7376,11 @@
         <v>4</v>
       </c>
       <c r="I163">
-        <v>1469</v>
+        <v>1471</v>
       </c>
       <c r="J163" s="4">
         <f t="shared" si="8"/>
-        <v>11.476895197825431</v>
+        <v>11.494661289462931</v>
       </c>
       <c r="K163" s="4">
         <f t="shared" si="9"/>
@@ -7389,10 +7400,10 @@
         <v>43995</v>
       </c>
       <c r="B164">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C164">
-        <v>34910</v>
+        <v>35175</v>
       </c>
       <c r="D164">
         <v>1</v>
@@ -7410,11 +7421,11 @@
         <v>6</v>
       </c>
       <c r="I164">
-        <v>1475</v>
+        <v>1477</v>
       </c>
       <c r="J164" s="4">
         <f t="shared" si="8"/>
-        <v>10.6418888908629</v>
+        <v>10.6774210741379</v>
       </c>
       <c r="K164" s="4">
         <f t="shared" si="9"/>
@@ -7437,7 +7448,7 @@
         <v>76</v>
       </c>
       <c r="C165">
-        <v>34933</v>
+        <v>35251</v>
       </c>
       <c r="D165">
         <v>0</v>
@@ -7455,11 +7466,11 @@
         <v>7</v>
       </c>
       <c r="I165">
-        <v>1482</v>
+        <v>1484</v>
       </c>
       <c r="J165" s="4">
         <f t="shared" si="8"/>
-        <v>10.002309591912875</v>
+        <v>10.037841775187877</v>
       </c>
       <c r="K165" s="4">
         <f t="shared" si="9"/>
@@ -7482,7 +7493,7 @@
         <v>61</v>
       </c>
       <c r="C166">
-        <v>34958</v>
+        <v>35312</v>
       </c>
       <c r="D166">
         <v>0</v>
@@ -7500,11 +7511,11 @@
         <v>6</v>
       </c>
       <c r="I166">
-        <v>1488</v>
+        <v>1490</v>
       </c>
       <c r="J166" s="4">
         <f t="shared" si="8"/>
-        <v>9.1140050100378414</v>
+        <v>9.1495371933128435</v>
       </c>
       <c r="K166" s="4">
         <f t="shared" si="9"/>
@@ -7524,10 +7535,10 @@
         <v>43998</v>
       </c>
       <c r="B167">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C167">
-        <v>35064</v>
+        <v>35381</v>
       </c>
       <c r="D167">
         <v>1</v>
@@ -7545,11 +7556,11 @@
         <v>8</v>
       </c>
       <c r="I167">
-        <v>1496</v>
+        <v>1498</v>
       </c>
       <c r="J167" s="4">
         <f t="shared" si="8"/>
-        <v>8.8475136354753321</v>
+        <v>8.8652797271128332</v>
       </c>
       <c r="K167" s="4">
         <f t="shared" si="9"/>
@@ -7572,7 +7583,7 @@
         <v>53</v>
       </c>
       <c r="C168">
-        <v>35154</v>
+        <v>35434</v>
       </c>
       <c r="D168">
         <v>1</v>
@@ -7590,7 +7601,7 @@
         <v>1</v>
       </c>
       <c r="I168">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="J168" s="4">
         <f t="shared" si="8"/>
@@ -7617,7 +7628,7 @@
         <v>57</v>
       </c>
       <c r="C169">
-        <v>35214</v>
+        <v>35491</v>
       </c>
       <c r="D169">
         <v>1</v>
@@ -7635,7 +7646,7 @@
         <v>0</v>
       </c>
       <c r="I169">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="J169" s="4">
         <f t="shared" si="8"/>
@@ -7662,7 +7673,7 @@
         <v>47</v>
       </c>
       <c r="C170">
-        <v>35287</v>
+        <v>35538</v>
       </c>
       <c r="D170">
         <v>1</v>
@@ -7680,7 +7691,7 @@
         <v>4</v>
       </c>
       <c r="I170">
-        <v>1501</v>
+        <v>1503</v>
       </c>
       <c r="J170" s="4">
         <f t="shared" si="8"/>
@@ -7707,7 +7718,7 @@
         <v>54</v>
       </c>
       <c r="C171">
-        <v>35354</v>
+        <v>35592</v>
       </c>
       <c r="D171">
         <v>0</v>
@@ -7725,11 +7736,11 @@
         <v>3</v>
       </c>
       <c r="I171">
-        <v>1504</v>
+        <v>1506</v>
       </c>
       <c r="J171" s="4">
         <f t="shared" si="8"/>
-        <v>7.4262263044752785</v>
+        <v>7.4084602128377783</v>
       </c>
       <c r="K171" s="4">
         <f t="shared" si="9"/>
@@ -7752,7 +7763,7 @@
         <v>47</v>
       </c>
       <c r="C172">
-        <v>35384</v>
+        <v>35639</v>
       </c>
       <c r="D172">
         <v>0</v>
@@ -7770,11 +7781,11 @@
         <v>5</v>
       </c>
       <c r="I172">
-        <v>1509</v>
+        <v>1511</v>
       </c>
       <c r="J172" s="4">
         <f t="shared" si="8"/>
-        <v>6.9110096469877593</v>
+        <v>6.8932435553502582</v>
       </c>
       <c r="K172" s="4">
         <f t="shared" si="9"/>
@@ -7797,7 +7808,7 @@
         <v>58</v>
       </c>
       <c r="C173">
-        <v>35397</v>
+        <v>35697</v>
       </c>
       <c r="D173">
         <v>1</v>
@@ -7815,11 +7826,11 @@
         <v>2</v>
       </c>
       <c r="I173">
-        <v>1511</v>
+        <v>1513</v>
       </c>
       <c r="J173" s="4">
         <f t="shared" si="8"/>
-        <v>6.8577113720752569</v>
+        <v>6.8399452804377567</v>
       </c>
       <c r="K173" s="4">
         <f t="shared" si="9"/>
@@ -7842,7 +7853,7 @@
         <v>61</v>
       </c>
       <c r="C174">
-        <v>35481</v>
+        <v>35758</v>
       </c>
       <c r="D174">
         <v>1</v>
@@ -7860,7 +7871,7 @@
         <v>1</v>
       </c>
       <c r="I174">
-        <v>1512</v>
+        <v>1514</v>
       </c>
       <c r="J174" s="4">
         <f t="shared" si="8"/>
@@ -7887,7 +7898,7 @@
         <v>69</v>
       </c>
       <c r="C175">
-        <v>35555</v>
+        <v>35827</v>
       </c>
       <c r="D175">
         <v>0</v>
@@ -7905,7 +7916,7 @@
         <v>6</v>
       </c>
       <c r="I175">
-        <v>1518</v>
+        <v>1520</v>
       </c>
       <c r="J175" s="4">
         <f t="shared" si="8"/>
@@ -7932,7 +7943,7 @@
         <v>57</v>
       </c>
       <c r="C176">
-        <v>35646</v>
+        <v>35884</v>
       </c>
       <c r="D176">
         <v>1</v>
@@ -7950,7 +7961,7 @@
         <v>9</v>
       </c>
       <c r="I176">
-        <v>1527</v>
+        <v>1529</v>
       </c>
       <c r="J176" s="4">
         <f t="shared" si="8"/>
@@ -7977,7 +7988,7 @@
         <v>38</v>
       </c>
       <c r="C177">
-        <v>35722</v>
+        <v>35922</v>
       </c>
       <c r="D177">
         <v>2</v>
@@ -7995,7 +8006,7 @@
         <v>2</v>
       </c>
       <c r="I177">
-        <v>1529</v>
+        <v>1531</v>
       </c>
       <c r="J177" s="4">
         <f t="shared" si="8"/>
@@ -8022,7 +8033,7 @@
         <v>39</v>
       </c>
       <c r="C178">
-        <v>35756</v>
+        <v>35961</v>
       </c>
       <c r="D178">
         <v>0</v>
@@ -8040,7 +8051,7 @@
         <v>6</v>
       </c>
       <c r="I178">
-        <v>1535</v>
+        <v>1537</v>
       </c>
       <c r="J178" s="4">
         <f t="shared" si="8"/>
@@ -8067,7 +8078,7 @@
         <v>41</v>
       </c>
       <c r="C179">
-        <v>35784</v>
+        <v>36002</v>
       </c>
       <c r="D179">
         <v>0</v>
@@ -8085,7 +8096,7 @@
         <v>2</v>
       </c>
       <c r="I179">
-        <v>1537</v>
+        <v>1539</v>
       </c>
       <c r="J179" s="4">
         <f t="shared" si="8"/>
@@ -8112,7 +8123,7 @@
         <v>34</v>
       </c>
       <c r="C180">
-        <v>35801</v>
+        <v>36036</v>
       </c>
       <c r="D180">
         <v>1</v>
@@ -8130,7 +8141,7 @@
         <v>3</v>
       </c>
       <c r="I180">
-        <v>1540</v>
+        <v>1542</v>
       </c>
       <c r="J180" s="4">
         <f t="shared" si="8"/>
@@ -8157,7 +8168,7 @@
         <v>43</v>
       </c>
       <c r="C181">
-        <v>35848</v>
+        <v>36079</v>
       </c>
       <c r="D181">
         <v>0</v>
@@ -8175,7 +8186,7 @@
         <v>4</v>
       </c>
       <c r="I181">
-        <v>1544</v>
+        <v>1546</v>
       </c>
       <c r="J181" s="4">
         <f t="shared" si="8"/>
@@ -8202,7 +8213,7 @@
         <v>22</v>
       </c>
       <c r="C182">
-        <v>35938</v>
+        <v>36101</v>
       </c>
       <c r="D182">
         <v>1</v>
@@ -8220,7 +8231,7 @@
         <v>4</v>
       </c>
       <c r="I182">
-        <v>1548</v>
+        <v>1550</v>
       </c>
       <c r="J182" s="4">
         <f t="shared" si="8"/>
@@ -8247,7 +8258,7 @@
         <v>40</v>
       </c>
       <c r="C183">
-        <v>35969</v>
+        <v>36141</v>
       </c>
       <c r="D183">
         <v>0</v>
@@ -8265,7 +8276,7 @@
         <v>3</v>
       </c>
       <c r="I183">
-        <v>1551</v>
+        <v>1553</v>
       </c>
       <c r="J183" s="4">
         <f t="shared" si="8"/>
@@ -8292,7 +8303,7 @@
         <v>26</v>
       </c>
       <c r="C184">
-        <v>36014</v>
+        <v>36167</v>
       </c>
       <c r="D184">
         <v>2</v>
@@ -8310,7 +8321,7 @@
         <v>0</v>
       </c>
       <c r="I184">
-        <v>1551</v>
+        <v>1553</v>
       </c>
       <c r="J184" s="4">
         <f t="shared" si="8"/>
@@ -8337,7 +8348,7 @@
         <v>31</v>
       </c>
       <c r="C185">
-        <v>36041</v>
+        <v>36198</v>
       </c>
       <c r="D185">
         <v>0</v>
@@ -8355,7 +8366,7 @@
         <v>2</v>
       </c>
       <c r="I185">
-        <v>1553</v>
+        <v>1555</v>
       </c>
       <c r="J185" s="4">
         <f t="shared" si="8"/>
@@ -8382,7 +8393,7 @@
         <v>24</v>
       </c>
       <c r="C186">
-        <v>36059</v>
+        <v>36222</v>
       </c>
       <c r="D186">
         <v>0</v>
@@ -8400,7 +8411,7 @@
         <v>2</v>
       </c>
       <c r="I186">
-        <v>1555</v>
+        <v>1557</v>
       </c>
       <c r="J186" s="4">
         <f t="shared" si="8"/>
@@ -8427,7 +8438,7 @@
         <v>33</v>
       </c>
       <c r="C187">
-        <v>36070</v>
+        <v>36255</v>
       </c>
       <c r="D187">
         <v>0</v>
@@ -8445,7 +8456,7 @@
         <v>2</v>
       </c>
       <c r="I187">
-        <v>1557</v>
+        <v>1559</v>
       </c>
       <c r="J187" s="4">
         <f t="shared" si="8"/>
@@ -8472,7 +8483,7 @@
         <v>26</v>
       </c>
       <c r="C188">
-        <v>36120</v>
+        <v>36281</v>
       </c>
       <c r="D188">
         <v>0</v>
@@ -8490,7 +8501,7 @@
         <v>1</v>
       </c>
       <c r="I188">
-        <v>1558</v>
+        <v>1560</v>
       </c>
       <c r="J188" s="4">
         <f t="shared" si="8"/>
@@ -8517,7 +8528,7 @@
         <v>23</v>
       </c>
       <c r="C189">
-        <v>36172</v>
+        <v>36304</v>
       </c>
       <c r="D189">
         <v>0</v>
@@ -8535,7 +8546,7 @@
         <v>1</v>
       </c>
       <c r="I189">
-        <v>1559</v>
+        <v>1561</v>
       </c>
       <c r="J189" s="4">
         <f t="shared" si="8"/>
@@ -8562,7 +8573,7 @@
         <v>35</v>
       </c>
       <c r="C190">
-        <v>36201</v>
+        <v>36339</v>
       </c>
       <c r="D190">
         <v>1</v>
@@ -8580,7 +8591,7 @@
         <v>1</v>
       </c>
       <c r="I190">
-        <v>1560</v>
+        <v>1562</v>
       </c>
       <c r="J190" s="4">
         <f t="shared" si="8"/>
@@ -8607,7 +8618,7 @@
         <v>21</v>
       </c>
       <c r="C191">
-        <v>36235</v>
+        <v>36360</v>
       </c>
       <c r="D191">
         <v>0</v>
@@ -8625,7 +8636,7 @@
         <v>0</v>
       </c>
       <c r="I191">
-        <v>1560</v>
+        <v>1562</v>
       </c>
       <c r="J191" s="4">
         <f t="shared" si="8"/>
@@ -8652,7 +8663,7 @@
         <v>21</v>
       </c>
       <c r="C192">
-        <v>36251</v>
+        <v>36381</v>
       </c>
       <c r="D192">
         <v>0</v>
@@ -8670,7 +8681,7 @@
         <v>1</v>
       </c>
       <c r="I192">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="J192" s="4">
         <f t="shared" si="8"/>
@@ -8697,7 +8708,7 @@
         <v>12</v>
       </c>
       <c r="C193">
-        <v>36260</v>
+        <v>36393</v>
       </c>
       <c r="D193">
         <v>1</v>
@@ -8715,7 +8726,7 @@
         <v>0</v>
       </c>
       <c r="I193">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="J193" s="4">
         <f t="shared" si="8"/>
@@ -8742,7 +8753,7 @@
         <v>22</v>
       </c>
       <c r="C194">
-        <v>36268</v>
+        <v>36415</v>
       </c>
       <c r="D194">
         <v>0</v>
@@ -8760,7 +8771,7 @@
         <v>2</v>
       </c>
       <c r="I194">
-        <v>1563</v>
+        <v>1565</v>
       </c>
       <c r="J194" s="4">
         <f t="shared" si="8"/>
@@ -8787,7 +8798,7 @@
         <v>20</v>
       </c>
       <c r="C195">
-        <v>36310</v>
+        <v>36435</v>
       </c>
       <c r="D195">
         <v>0</v>
@@ -8805,7 +8816,7 @@
         <v>1</v>
       </c>
       <c r="I195">
-        <v>1564</v>
+        <v>1566</v>
       </c>
       <c r="J195" s="4">
         <f t="shared" si="8"/>
@@ -8832,7 +8843,7 @@
         <v>20</v>
       </c>
       <c r="C196">
-        <v>36334</v>
+        <v>36455</v>
       </c>
       <c r="D196">
         <v>0</v>
@@ -8850,7 +8861,7 @@
         <v>0</v>
       </c>
       <c r="I196">
-        <v>1564</v>
+        <v>1566</v>
       </c>
       <c r="J196" s="4">
         <f t="shared" si="8"/>
@@ -8877,7 +8888,7 @@
         <v>12</v>
       </c>
       <c r="C197">
-        <v>36357</v>
+        <v>36467</v>
       </c>
       <c r="D197">
         <v>0</v>
@@ -8895,7 +8906,7 @@
         <v>1</v>
       </c>
       <c r="I197">
-        <v>1565</v>
+        <v>1567</v>
       </c>
       <c r="J197" s="4">
         <f t="shared" si="8"/>
@@ -8922,7 +8933,7 @@
         <v>18</v>
       </c>
       <c r="C198">
-        <v>36382</v>
+        <v>36485</v>
       </c>
       <c r="D198">
         <v>0</v>
@@ -8940,7 +8951,7 @@
         <v>0</v>
       </c>
       <c r="I198">
-        <v>1565</v>
+        <v>1567</v>
       </c>
       <c r="J198" s="4">
         <f t="shared" si="8"/>
@@ -8967,7 +8978,7 @@
         <v>14</v>
       </c>
       <c r="C199">
-        <v>36391</v>
+        <v>36499</v>
       </c>
       <c r="D199">
         <v>0</v>
@@ -8985,7 +8996,7 @@
         <v>0</v>
       </c>
       <c r="I199">
-        <v>1565</v>
+        <v>1567</v>
       </c>
       <c r="J199" s="4">
         <f t="shared" ref="J199:J262" si="12">SUM(B193:B199)/(56.287)</f>
@@ -9012,7 +9023,7 @@
         <v>14</v>
       </c>
       <c r="C200">
-        <v>36401</v>
+        <v>36513</v>
       </c>
       <c r="D200">
         <v>0</v>
@@ -9030,7 +9041,7 @@
         <v>0</v>
       </c>
       <c r="I200">
-        <v>1565</v>
+        <v>1567</v>
       </c>
       <c r="J200" s="4">
         <f t="shared" si="12"/>
@@ -9057,7 +9068,7 @@
         <v>12</v>
       </c>
       <c r="C201">
-        <v>36411</v>
+        <v>36525</v>
       </c>
       <c r="D201">
         <v>0</v>
@@ -9075,7 +9086,7 @@
         <v>0</v>
       </c>
       <c r="I201">
-        <v>1565</v>
+        <v>1567</v>
       </c>
       <c r="J201" s="4">
         <f t="shared" si="12"/>
@@ -9102,7 +9113,7 @@
         <v>19</v>
       </c>
       <c r="C202">
-        <v>36436</v>
+        <v>36544</v>
       </c>
       <c r="D202">
         <v>0</v>
@@ -9120,7 +9131,7 @@
         <v>1</v>
       </c>
       <c r="I202">
-        <v>1566</v>
+        <v>1568</v>
       </c>
       <c r="J202" s="4">
         <f t="shared" si="12"/>
@@ -9147,7 +9158,7 @@
         <v>16</v>
       </c>
       <c r="C203">
-        <v>36452</v>
+        <v>36560</v>
       </c>
       <c r="D203">
         <v>0</v>
@@ -9165,7 +9176,7 @@
         <v>1</v>
       </c>
       <c r="I203">
-        <v>1567</v>
+        <v>1569</v>
       </c>
       <c r="J203" s="4">
         <f t="shared" si="12"/>
@@ -9192,7 +9203,7 @@
         <v>16</v>
       </c>
       <c r="C204">
-        <v>36461</v>
+        <v>36576</v>
       </c>
       <c r="D204">
         <v>0</v>
@@ -9210,7 +9221,7 @@
         <v>0</v>
       </c>
       <c r="I204">
-        <v>1567</v>
+        <v>1569</v>
       </c>
       <c r="J204" s="4">
         <f t="shared" si="12"/>
@@ -9237,7 +9248,7 @@
         <v>6</v>
       </c>
       <c r="C205">
-        <v>36493</v>
+        <v>36582</v>
       </c>
       <c r="D205">
         <v>0</v>
@@ -9255,7 +9266,7 @@
         <v>1</v>
       </c>
       <c r="I205">
-        <v>1568</v>
+        <v>1570</v>
       </c>
       <c r="J205" s="4">
         <f t="shared" si="12"/>
@@ -9282,7 +9293,7 @@
         <v>13</v>
       </c>
       <c r="C206">
-        <v>36508</v>
+        <v>36595</v>
       </c>
       <c r="D206">
         <v>0</v>
@@ -9300,7 +9311,7 @@
         <v>2</v>
       </c>
       <c r="I206">
-        <v>1570</v>
+        <v>1572</v>
       </c>
       <c r="J206" s="4">
         <f t="shared" si="12"/>
@@ -9327,7 +9338,7 @@
         <v>14</v>
       </c>
       <c r="C207">
-        <v>36515</v>
+        <v>36609</v>
       </c>
       <c r="D207">
         <v>0</v>
@@ -9345,7 +9356,7 @@
         <v>2</v>
       </c>
       <c r="I207">
-        <v>1572</v>
+        <v>1574</v>
       </c>
       <c r="J207" s="4">
         <f t="shared" si="12"/>
@@ -9372,7 +9383,7 @@
         <v>10</v>
       </c>
       <c r="C208">
-        <v>36518</v>
+        <v>36619</v>
       </c>
       <c r="D208">
         <v>0</v>
@@ -9390,7 +9401,7 @@
         <v>1</v>
       </c>
       <c r="I208">
-        <v>1573</v>
+        <v>1575</v>
       </c>
       <c r="J208" s="4">
         <f t="shared" si="12"/>
@@ -9417,7 +9428,7 @@
         <v>10</v>
       </c>
       <c r="C209">
-        <v>36539</v>
+        <v>36629</v>
       </c>
       <c r="D209">
         <v>0</v>
@@ -9435,7 +9446,7 @@
         <v>2</v>
       </c>
       <c r="I209">
-        <v>1575</v>
+        <v>1577</v>
       </c>
       <c r="J209" s="4">
         <f t="shared" si="12"/>
@@ -9462,7 +9473,7 @@
         <v>8</v>
       </c>
       <c r="C210">
-        <v>36568</v>
+        <v>36637</v>
       </c>
       <c r="D210">
         <v>0</v>
@@ -9480,7 +9491,7 @@
         <v>4</v>
       </c>
       <c r="I210">
-        <v>1579</v>
+        <v>1581</v>
       </c>
       <c r="J210" s="4">
         <f t="shared" si="12"/>
@@ -9507,7 +9518,7 @@
         <v>8</v>
       </c>
       <c r="C211">
-        <v>36568</v>
+        <v>36645</v>
       </c>
       <c r="D211">
         <v>0</v>
@@ -9525,7 +9536,7 @@
         <v>2</v>
       </c>
       <c r="I211">
-        <v>1581</v>
+        <v>1583</v>
       </c>
       <c r="J211" s="4">
         <f t="shared" si="12"/>
@@ -9552,7 +9563,7 @@
         <v>10</v>
       </c>
       <c r="C212">
-        <v>36582</v>
+        <v>36655</v>
       </c>
       <c r="D212">
         <v>0</v>
@@ -9570,7 +9581,7 @@
         <v>4</v>
       </c>
       <c r="I212">
-        <v>1585</v>
+        <v>1587</v>
       </c>
       <c r="J212" s="4">
         <f t="shared" si="12"/>
@@ -9597,7 +9608,7 @@
         <v>9</v>
       </c>
       <c r="C213">
-        <v>36593</v>
+        <v>36664</v>
       </c>
       <c r="D213">
         <v>0</v>
@@ -9615,7 +9626,7 @@
         <v>2</v>
       </c>
       <c r="I213">
-        <v>1587</v>
+        <v>1589</v>
       </c>
       <c r="J213" s="4">
         <f t="shared" si="12"/>
@@ -9642,7 +9653,7 @@
         <v>8</v>
       </c>
       <c r="C214">
-        <v>36595</v>
+        <v>36672</v>
       </c>
       <c r="D214">
         <v>0</v>
@@ -9660,7 +9671,7 @@
         <v>2</v>
       </c>
       <c r="I214">
-        <v>1589</v>
+        <v>1591</v>
       </c>
       <c r="J214" s="4">
         <f t="shared" si="12"/>
@@ -9687,7 +9698,7 @@
         <v>14</v>
       </c>
       <c r="C215">
-        <v>36596</v>
+        <v>36686</v>
       </c>
       <c r="D215">
         <v>0</v>
@@ -9705,7 +9716,7 @@
         <v>1</v>
       </c>
       <c r="I215">
-        <v>1590</v>
+        <v>1592</v>
       </c>
       <c r="J215" s="4">
         <f t="shared" si="12"/>
@@ -9732,7 +9743,7 @@
         <v>10</v>
       </c>
       <c r="C216">
-        <v>36613</v>
+        <v>36696</v>
       </c>
       <c r="D216">
         <v>0</v>
@@ -9750,7 +9761,7 @@
         <v>4</v>
       </c>
       <c r="I216">
-        <v>1594</v>
+        <v>1596</v>
       </c>
       <c r="J216" s="4">
         <f t="shared" si="12"/>
@@ -9777,7 +9788,7 @@
         <v>3</v>
       </c>
       <c r="C217">
-        <v>36625</v>
+        <v>36699</v>
       </c>
       <c r="D217">
         <v>0</v>
@@ -9795,7 +9806,7 @@
         <v>3</v>
       </c>
       <c r="I217">
-        <v>1597</v>
+        <v>1599</v>
       </c>
       <c r="J217" s="4">
         <f t="shared" si="12"/>
@@ -9822,7 +9833,7 @@
         <v>9</v>
       </c>
       <c r="C218">
-        <v>36640</v>
+        <v>36708</v>
       </c>
       <c r="D218">
         <v>0</v>
@@ -9840,7 +9851,7 @@
         <v>0</v>
       </c>
       <c r="I218">
-        <v>1597</v>
+        <v>1599</v>
       </c>
       <c r="J218" s="4">
         <f t="shared" si="12"/>
@@ -9867,7 +9878,7 @@
         <v>7</v>
       </c>
       <c r="C219">
-        <v>36645</v>
+        <v>36715</v>
       </c>
       <c r="D219">
         <v>0</v>
@@ -9885,7 +9896,7 @@
         <v>5</v>
       </c>
       <c r="I219">
-        <v>1602</v>
+        <v>1604</v>
       </c>
       <c r="J219" s="4">
         <f t="shared" si="12"/>
@@ -9912,7 +9923,7 @@
         <v>11</v>
       </c>
       <c r="C220">
-        <v>36647</v>
+        <v>36726</v>
       </c>
       <c r="D220">
         <v>1</v>
@@ -9930,7 +9941,7 @@
         <v>2</v>
       </c>
       <c r="I220">
-        <v>1604</v>
+        <v>1606</v>
       </c>
       <c r="J220" s="4">
         <f t="shared" si="12"/>
@@ -9957,7 +9968,7 @@
         <v>8</v>
       </c>
       <c r="C221">
-        <v>36652</v>
+        <v>36734</v>
       </c>
       <c r="D221">
         <v>0</v>
@@ -9975,7 +9986,7 @@
         <v>0</v>
       </c>
       <c r="I221">
-        <v>1604</v>
+        <v>1606</v>
       </c>
       <c r="J221" s="4">
         <f t="shared" si="12"/>
@@ -10002,7 +10013,7 @@
         <v>11</v>
       </c>
       <c r="C222">
-        <v>36669</v>
+        <v>36745</v>
       </c>
       <c r="D222">
         <v>0</v>
@@ -10020,7 +10031,7 @@
         <v>2</v>
       </c>
       <c r="I222">
-        <v>1606</v>
+        <v>1608</v>
       </c>
       <c r="J222" s="4">
         <f t="shared" si="12"/>
@@ -10047,7 +10058,7 @@
         <v>10</v>
       </c>
       <c r="C223">
-        <v>36680</v>
+        <v>36755</v>
       </c>
       <c r="D223">
         <v>0</v>
@@ -10065,7 +10076,7 @@
         <v>0</v>
       </c>
       <c r="I223">
-        <v>1606</v>
+        <v>1608</v>
       </c>
       <c r="J223" s="4">
         <f t="shared" si="12"/>
@@ -10092,7 +10103,7 @@
         <v>6</v>
       </c>
       <c r="C224">
-        <v>36695</v>
+        <v>36761</v>
       </c>
       <c r="D224">
         <v>0</v>
@@ -10110,7 +10121,7 @@
         <v>1</v>
       </c>
       <c r="I224">
-        <v>1607</v>
+        <v>1609</v>
       </c>
       <c r="J224" s="4">
         <f t="shared" si="12"/>
@@ -10137,7 +10148,7 @@
         <v>7</v>
       </c>
       <c r="C225">
-        <v>36713</v>
+        <v>36768</v>
       </c>
       <c r="D225">
         <v>1</v>
@@ -10155,7 +10166,7 @@
         <v>1</v>
       </c>
       <c r="I225">
-        <v>1608</v>
+        <v>1610</v>
       </c>
       <c r="J225" s="4">
         <f t="shared" si="12"/>
@@ -10182,7 +10193,7 @@
         <v>6</v>
       </c>
       <c r="C226">
-        <v>36723</v>
+        <v>36774</v>
       </c>
       <c r="D226">
         <v>0</v>
@@ -10200,7 +10211,7 @@
         <v>1</v>
       </c>
       <c r="I226">
-        <v>1609</v>
+        <v>1611</v>
       </c>
       <c r="J226" s="4">
         <f t="shared" si="12"/>
@@ -10227,7 +10238,7 @@
         <v>11</v>
       </c>
       <c r="C227">
-        <v>36725</v>
+        <v>36785</v>
       </c>
       <c r="D227">
         <v>1</v>
@@ -10245,7 +10256,7 @@
         <v>0</v>
       </c>
       <c r="I227">
-        <v>1609</v>
+        <v>1611</v>
       </c>
       <c r="J227" s="4">
         <f t="shared" si="12"/>
@@ -10272,7 +10283,7 @@
         <v>4</v>
       </c>
       <c r="C228">
-        <v>36728</v>
+        <v>36789</v>
       </c>
       <c r="D228">
         <v>0</v>
@@ -10290,7 +10301,7 @@
         <v>0</v>
       </c>
       <c r="I228">
-        <v>1609</v>
+        <v>1611</v>
       </c>
       <c r="J228" s="4">
         <f t="shared" si="12"/>
@@ -10317,7 +10328,7 @@
         <v>12</v>
       </c>
       <c r="C229">
-        <v>36731</v>
+        <v>36801</v>
       </c>
       <c r="D229">
         <v>0</v>
@@ -10335,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="I229">
-        <v>1609</v>
+        <v>1611</v>
       </c>
       <c r="J229" s="4">
         <f t="shared" si="12"/>
@@ -10362,7 +10373,7 @@
         <v>7</v>
       </c>
       <c r="C230">
-        <v>36742</v>
+        <v>36808</v>
       </c>
       <c r="D230">
         <v>0</v>
@@ -10380,7 +10391,7 @@
         <v>2</v>
       </c>
       <c r="I230">
-        <v>1611</v>
+        <v>1613</v>
       </c>
       <c r="J230" s="4">
         <f t="shared" si="12"/>
@@ -10407,7 +10418,7 @@
         <v>2</v>
       </c>
       <c r="C231">
-        <v>36757</v>
+        <v>36810</v>
       </c>
       <c r="D231">
         <v>0</v>
@@ -10425,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="I231">
-        <v>1611</v>
+        <v>1613</v>
       </c>
       <c r="J231" s="4">
         <f t="shared" si="12"/>
@@ -10452,7 +10463,7 @@
         <v>8</v>
       </c>
       <c r="C232">
-        <v>36763</v>
+        <v>36818</v>
       </c>
       <c r="D232">
         <v>0</v>
@@ -10470,7 +10481,7 @@
         <v>0</v>
       </c>
       <c r="I232">
-        <v>1611</v>
+        <v>1613</v>
       </c>
       <c r="J232" s="4">
         <f t="shared" si="12"/>
@@ -10497,7 +10508,7 @@
         <v>7</v>
       </c>
       <c r="C233">
-        <v>36765</v>
+        <v>36825</v>
       </c>
       <c r="D233">
         <v>0</v>
@@ -10515,7 +10526,7 @@
         <v>0</v>
       </c>
       <c r="I233">
-        <v>1611</v>
+        <v>1613</v>
       </c>
       <c r="J233" s="4">
         <f t="shared" si="12"/>
@@ -10542,7 +10553,7 @@
         <v>6</v>
       </c>
       <c r="C234">
-        <v>36782</v>
+        <v>36831</v>
       </c>
       <c r="D234">
         <v>0</v>
@@ -10560,7 +10571,7 @@
         <v>1</v>
       </c>
       <c r="I234">
-        <v>1612</v>
+        <v>1614</v>
       </c>
       <c r="J234" s="4">
         <f t="shared" si="12"/>
@@ -10587,7 +10598,7 @@
         <v>13</v>
       </c>
       <c r="C235">
-        <v>36786</v>
+        <v>36844</v>
       </c>
       <c r="D235">
         <v>0</v>
@@ -10605,7 +10616,7 @@
         <v>0</v>
       </c>
       <c r="I235">
-        <v>1612</v>
+        <v>1614</v>
       </c>
       <c r="J235" s="4">
         <f t="shared" si="12"/>
@@ -10632,7 +10643,7 @@
         <v>5</v>
       </c>
       <c r="C236">
-        <v>36789</v>
+        <v>36849</v>
       </c>
       <c r="D236">
         <v>0</v>
@@ -10650,7 +10661,7 @@
         <v>1</v>
       </c>
       <c r="I236">
-        <v>1613</v>
+        <v>1615</v>
       </c>
       <c r="J236" s="4">
         <f t="shared" si="12"/>
@@ -10677,7 +10688,7 @@
         <v>11</v>
       </c>
       <c r="C237">
-        <v>36805</v>
+        <v>36860</v>
       </c>
       <c r="D237">
         <v>1</v>
@@ -10695,7 +10706,7 @@
         <v>0</v>
       </c>
       <c r="I237">
-        <v>1613</v>
+        <v>1615</v>
       </c>
       <c r="J237" s="4">
         <f t="shared" si="12"/>
@@ -10722,7 +10733,7 @@
         <v>11</v>
       </c>
       <c r="C238">
-        <v>36818</v>
+        <v>36871</v>
       </c>
       <c r="D238">
         <v>0</v>
@@ -10740,7 +10751,7 @@
         <v>0</v>
       </c>
       <c r="I238">
-        <v>1613</v>
+        <v>1615</v>
       </c>
       <c r="J238" s="4">
         <f t="shared" si="12"/>
@@ -10767,7 +10778,7 @@
         <v>8</v>
       </c>
       <c r="C239">
-        <v>36828</v>
+        <v>36879</v>
       </c>
       <c r="D239">
         <v>0</v>
@@ -10785,7 +10796,7 @@
         <v>0</v>
       </c>
       <c r="I239">
-        <v>1613</v>
+        <v>1615</v>
       </c>
       <c r="J239" s="4">
         <f t="shared" si="12"/>
@@ -10812,7 +10823,7 @@
         <v>8</v>
       </c>
       <c r="C240">
-        <v>36837</v>
+        <v>36887</v>
       </c>
       <c r="D240">
         <v>1</v>
@@ -10830,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="I240">
-        <v>1613</v>
+        <v>1615</v>
       </c>
       <c r="J240" s="4">
         <f t="shared" si="12"/>
@@ -10857,7 +10868,7 @@
         <v>5</v>
       </c>
       <c r="C241">
-        <v>36849</v>
+        <v>36892</v>
       </c>
       <c r="D241">
         <v>0</v>
@@ -10875,7 +10886,7 @@
         <v>0</v>
       </c>
       <c r="I241">
-        <v>1613</v>
+        <v>1615</v>
       </c>
       <c r="J241" s="4">
         <f t="shared" si="12"/>
@@ -10902,7 +10913,7 @@
         <v>6</v>
       </c>
       <c r="C242">
-        <v>36850</v>
+        <v>36898</v>
       </c>
       <c r="D242">
         <v>0</v>
@@ -10920,7 +10931,7 @@
         <v>0</v>
       </c>
       <c r="I242">
-        <v>1613</v>
+        <v>1615</v>
       </c>
       <c r="J242" s="4">
         <f t="shared" si="12"/>
@@ -10947,7 +10958,7 @@
         <v>7</v>
       </c>
       <c r="C243">
-        <v>36852</v>
+        <v>36905</v>
       </c>
       <c r="D243">
         <v>0</v>
@@ -10965,7 +10976,7 @@
         <v>2</v>
       </c>
       <c r="I243">
-        <v>1615</v>
+        <v>1617</v>
       </c>
       <c r="J243" s="4">
         <f t="shared" si="12"/>
@@ -10992,7 +11003,7 @@
         <v>2</v>
       </c>
       <c r="C244">
-        <v>36854</v>
+        <v>36907</v>
       </c>
       <c r="D244">
         <v>1</v>
@@ -11010,7 +11021,7 @@
         <v>0</v>
       </c>
       <c r="I244">
-        <v>1615</v>
+        <v>1617</v>
       </c>
       <c r="J244" s="4">
         <f t="shared" si="12"/>
@@ -11037,7 +11048,7 @@
         <v>8</v>
       </c>
       <c r="C245">
-        <v>36861</v>
+        <v>36915</v>
       </c>
       <c r="D245">
         <v>0</v>
@@ -11055,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="I245">
-        <v>1615</v>
+        <v>1617</v>
       </c>
       <c r="J245" s="4">
         <f t="shared" si="12"/>
@@ -11082,7 +11093,7 @@
         <v>6</v>
       </c>
       <c r="C246">
-        <v>36872</v>
+        <v>36921</v>
       </c>
       <c r="D246">
         <v>2</v>
@@ -11100,7 +11111,7 @@
         <v>1</v>
       </c>
       <c r="I246">
-        <v>1616</v>
+        <v>1618</v>
       </c>
       <c r="J246" s="4">
         <f t="shared" si="12"/>
@@ -11127,7 +11138,7 @@
         <v>6</v>
       </c>
       <c r="C247">
-        <v>36881</v>
+        <v>36927</v>
       </c>
       <c r="D247">
         <v>0</v>
@@ -11145,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="I247">
-        <v>1616</v>
+        <v>1618</v>
       </c>
       <c r="J247" s="4">
         <f t="shared" si="12"/>
@@ -11172,7 +11183,7 @@
         <v>12</v>
       </c>
       <c r="C248">
-        <v>36892</v>
+        <v>36939</v>
       </c>
       <c r="D248">
         <v>1</v>
@@ -11190,7 +11201,7 @@
         <v>0</v>
       </c>
       <c r="I248">
-        <v>1616</v>
+        <v>1618</v>
       </c>
       <c r="J248" s="4">
         <f t="shared" si="12"/>
@@ -11217,7 +11228,7 @@
         <v>8</v>
       </c>
       <c r="C249">
-        <v>36894</v>
+        <v>36947</v>
       </c>
       <c r="D249">
         <v>0</v>
@@ -11235,7 +11246,7 @@
         <v>0</v>
       </c>
       <c r="I249">
-        <v>1616</v>
+        <v>1618</v>
       </c>
       <c r="J249" s="4">
         <f t="shared" si="12"/>
@@ -11262,7 +11273,7 @@
         <v>13</v>
       </c>
       <c r="C250">
-        <v>36896</v>
+        <v>36960</v>
       </c>
       <c r="D250">
         <v>2</v>
@@ -11280,7 +11291,7 @@
         <v>0</v>
       </c>
       <c r="I250">
-        <v>1616</v>
+        <v>1618</v>
       </c>
       <c r="J250" s="4">
         <f t="shared" si="12"/>
@@ -11307,7 +11318,7 @@
         <v>9</v>
       </c>
       <c r="C251">
-        <v>36923</v>
+        <v>36969</v>
       </c>
       <c r="D251">
         <v>0</v>
@@ -11325,7 +11336,7 @@
         <v>0</v>
       </c>
       <c r="I251">
-        <v>1616</v>
+        <v>1618</v>
       </c>
       <c r="J251" s="4">
         <f t="shared" si="12"/>
@@ -11352,7 +11363,7 @@
         <v>9</v>
       </c>
       <c r="C252">
-        <v>36931</v>
+        <v>36978</v>
       </c>
       <c r="D252">
         <v>0</v>
@@ -11370,7 +11381,7 @@
         <v>0</v>
       </c>
       <c r="I252">
-        <v>1616</v>
+        <v>1618</v>
       </c>
       <c r="J252" s="4">
         <f t="shared" si="12"/>
@@ -11397,7 +11408,7 @@
         <v>12</v>
       </c>
       <c r="C253">
-        <v>36944</v>
+        <v>36990</v>
       </c>
       <c r="D253">
         <v>1</v>
@@ -11415,7 +11426,7 @@
         <v>0</v>
       </c>
       <c r="I253">
-        <v>1616</v>
+        <v>1618</v>
       </c>
       <c r="J253" s="4">
         <f t="shared" si="12"/>
@@ -11442,7 +11453,7 @@
         <v>10</v>
       </c>
       <c r="C254">
-        <v>36950</v>
+        <v>37000</v>
       </c>
       <c r="D254">
         <v>2</v>
@@ -11460,7 +11471,7 @@
         <v>1</v>
       </c>
       <c r="I254">
-        <v>1617</v>
+        <v>1619</v>
       </c>
       <c r="J254" s="4">
         <f t="shared" si="12"/>
@@ -11487,7 +11498,7 @@
         <v>18</v>
       </c>
       <c r="C255">
-        <v>36959</v>
+        <v>37018</v>
       </c>
       <c r="D255">
         <v>0</v>
@@ -11505,7 +11516,7 @@
         <v>0</v>
       </c>
       <c r="I255">
-        <v>1617</v>
+        <v>1619</v>
       </c>
       <c r="J255" s="4">
         <f t="shared" si="12"/>
@@ -11532,7 +11543,7 @@
         <v>14</v>
       </c>
       <c r="C256">
-        <v>36964</v>
+        <v>37032</v>
       </c>
       <c r="D256">
         <v>0</v>
@@ -11550,7 +11561,7 @@
         <v>1</v>
       </c>
       <c r="I256">
-        <v>1618</v>
+        <v>1620</v>
       </c>
       <c r="J256" s="4">
         <f t="shared" si="12"/>
@@ -11577,7 +11588,7 @@
         <v>17</v>
       </c>
       <c r="C257">
-        <v>36971</v>
+        <v>37049</v>
       </c>
       <c r="D257">
         <v>1</v>
@@ -11595,7 +11606,7 @@
         <v>0</v>
       </c>
       <c r="I257">
-        <v>1618</v>
+        <v>1620</v>
       </c>
       <c r="J257" s="4">
         <f t="shared" si="12"/>
@@ -11622,7 +11633,7 @@
         <v>15</v>
       </c>
       <c r="C258">
-        <v>36996</v>
+        <v>37064</v>
       </c>
       <c r="D258">
         <v>1</v>
@@ -11640,7 +11651,7 @@
         <v>1</v>
       </c>
       <c r="I258">
-        <v>1619</v>
+        <v>1621</v>
       </c>
       <c r="J258" s="4">
         <f t="shared" si="12"/>
@@ -11667,7 +11678,7 @@
         <v>22</v>
       </c>
       <c r="C259">
-        <v>37013</v>
+        <v>37086</v>
       </c>
       <c r="D259">
         <v>2</v>
@@ -11685,7 +11696,7 @@
         <v>2</v>
       </c>
       <c r="I259">
-        <v>1621</v>
+        <v>1623</v>
       </c>
       <c r="J259" s="4">
         <f t="shared" si="12"/>
@@ -11712,7 +11723,7 @@
         <v>24</v>
       </c>
       <c r="C260">
-        <v>37031</v>
+        <v>37110</v>
       </c>
       <c r="D260">
         <v>0</v>
@@ -11730,7 +11741,7 @@
         <v>2</v>
       </c>
       <c r="I260">
-        <v>1623</v>
+        <v>1625</v>
       </c>
       <c r="J260" s="4">
         <f t="shared" si="12"/>
@@ -11757,7 +11768,7 @@
         <v>21</v>
       </c>
       <c r="C261">
-        <v>37054</v>
+        <v>37131</v>
       </c>
       <c r="D261">
         <v>1</v>
@@ -11775,7 +11786,7 @@
         <v>0</v>
       </c>
       <c r="I261">
-        <v>1623</v>
+        <v>1625</v>
       </c>
       <c r="J261" s="4">
         <f t="shared" si="12"/>
@@ -11802,7 +11813,7 @@
         <v>18</v>
       </c>
       <c r="C262">
-        <v>37076</v>
+        <v>37149</v>
       </c>
       <c r="D262">
         <v>2</v>
@@ -11820,7 +11831,7 @@
         <v>0</v>
       </c>
       <c r="I262">
-        <v>1623</v>
+        <v>1625</v>
       </c>
       <c r="J262" s="4">
         <f t="shared" si="12"/>
@@ -11847,7 +11858,7 @@
         <v>27</v>
       </c>
       <c r="C263">
-        <v>37094</v>
+        <v>37176</v>
       </c>
       <c r="D263">
         <v>0</v>
@@ -11865,7 +11876,7 @@
         <v>1</v>
       </c>
       <c r="I263">
-        <v>1624</v>
+        <v>1626</v>
       </c>
       <c r="J263" s="4">
         <f t="shared" ref="J263:J326" si="16">SUM(B257:B263)/(56.287)</f>
@@ -11892,7 +11903,7 @@
         <v>24</v>
       </c>
       <c r="C264">
-        <v>37103</v>
+        <v>37200</v>
       </c>
       <c r="D264">
         <v>0</v>
@@ -11910,7 +11921,7 @@
         <v>1</v>
       </c>
       <c r="I264">
-        <v>1625</v>
+        <v>1627</v>
       </c>
       <c r="J264" s="4">
         <f t="shared" si="16"/>
@@ -11937,7 +11948,7 @@
         <v>34</v>
       </c>
       <c r="C265">
-        <v>37139</v>
+        <v>37234</v>
       </c>
       <c r="D265">
         <v>0</v>
@@ -11955,7 +11966,7 @@
         <v>3</v>
       </c>
       <c r="I265">
-        <v>1628</v>
+        <v>1630</v>
       </c>
       <c r="J265" s="4">
         <f t="shared" si="16"/>
@@ -11982,7 +11993,7 @@
         <v>52</v>
       </c>
       <c r="C266">
-        <v>37172</v>
+        <v>37286</v>
       </c>
       <c r="D266">
         <v>0</v>
@@ -12000,7 +12011,7 @@
         <v>3</v>
       </c>
       <c r="I266">
-        <v>1631</v>
+        <v>1633</v>
       </c>
       <c r="J266" s="4">
         <f t="shared" si="16"/>
@@ -12027,7 +12038,7 @@
         <v>33</v>
       </c>
       <c r="C267">
-        <v>37209</v>
+        <v>37319</v>
       </c>
       <c r="D267">
         <v>0</v>
@@ -12045,7 +12056,7 @@
         <v>0</v>
       </c>
       <c r="I267">
-        <v>1631</v>
+        <v>1633</v>
       </c>
       <c r="J267" s="4">
         <f t="shared" si="16"/>
@@ -12072,7 +12083,7 @@
         <v>29</v>
       </c>
       <c r="C268">
-        <v>37240</v>
+        <v>37348</v>
       </c>
       <c r="D268">
         <v>1</v>
@@ -12090,7 +12101,7 @@
         <v>1</v>
       </c>
       <c r="I268">
-        <v>1632</v>
+        <v>1634</v>
       </c>
       <c r="J268" s="4">
         <f t="shared" si="16"/>
@@ -12114,10 +12125,10 @@
         <v>44100</v>
       </c>
       <c r="B269">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C269">
-        <v>37270</v>
+        <v>37383</v>
       </c>
       <c r="D269">
         <v>0</v>
@@ -12135,11 +12146,11 @@
         <v>2</v>
       </c>
       <c r="I269">
-        <v>1634</v>
+        <v>1636</v>
       </c>
       <c r="J269" s="4">
         <f t="shared" si="16"/>
-        <v>4.175031534812657</v>
+        <v>4.1572654431751559</v>
       </c>
       <c r="K269" s="4">
         <f t="shared" si="17"/>
@@ -12159,10 +12170,10 @@
         <v>44101</v>
       </c>
       <c r="B270">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C270">
-        <v>37286</v>
+        <v>37425</v>
       </c>
       <c r="D270">
         <v>0</v>
@@ -12180,7 +12191,7 @@
         <v>3</v>
       </c>
       <c r="I270">
-        <v>1637</v>
+        <v>1639</v>
       </c>
       <c r="J270" s="4">
         <f t="shared" si="16"/>
@@ -12207,7 +12218,7 @@
         <v>47</v>
       </c>
       <c r="C271">
-        <v>37299</v>
+        <v>37472</v>
       </c>
       <c r="D271">
         <v>1</v>
@@ -12225,7 +12236,7 @@
         <v>3</v>
       </c>
       <c r="I271">
-        <v>1640</v>
+        <v>1642</v>
       </c>
       <c r="J271" s="4">
         <f t="shared" si="16"/>
@@ -12252,7 +12263,7 @@
         <v>43</v>
       </c>
       <c r="C272">
-        <v>37367</v>
+        <v>37515</v>
       </c>
       <c r="D272">
         <v>0</v>
@@ -12270,7 +12281,7 @@
         <v>4</v>
       </c>
       <c r="I272">
-        <v>1644</v>
+        <v>1646</v>
       </c>
       <c r="J272" s="4">
         <f t="shared" si="16"/>
@@ -12297,7 +12308,7 @@
         <v>48</v>
       </c>
       <c r="C273">
-        <v>37429</v>
+        <v>37563</v>
       </c>
       <c r="D273">
         <v>1</v>
@@ -12315,7 +12326,7 @@
         <v>4</v>
       </c>
       <c r="I273">
-        <v>1648</v>
+        <v>1650</v>
       </c>
       <c r="J273" s="4">
         <f t="shared" si="16"/>
@@ -12342,7 +12353,7 @@
         <v>56</v>
       </c>
       <c r="C274">
-        <v>37477</v>
+        <v>37619</v>
       </c>
       <c r="D274">
         <v>1</v>
@@ -12360,7 +12371,7 @@
         <v>5</v>
       </c>
       <c r="I274">
-        <v>1653</v>
+        <v>1655</v>
       </c>
       <c r="J274" s="4">
         <f t="shared" si="16"/>
@@ -12387,7 +12398,7 @@
         <v>63</v>
       </c>
       <c r="C275">
-        <v>37535</v>
+        <v>37682</v>
       </c>
       <c r="D275">
         <v>2</v>
@@ -12405,7 +12416,7 @@
         <v>2</v>
       </c>
       <c r="I275">
-        <v>1655</v>
+        <v>1657</v>
       </c>
       <c r="J275" s="4">
         <f t="shared" si="16"/>
@@ -12432,7 +12443,7 @@
         <v>55</v>
       </c>
       <c r="C276">
-        <v>37574</v>
+        <v>37737</v>
       </c>
       <c r="D276">
         <v>1</v>
@@ -12450,11 +12461,11 @@
         <v>8</v>
       </c>
       <c r="I276">
-        <v>1663</v>
+        <v>1665</v>
       </c>
       <c r="J276" s="4">
         <f t="shared" si="16"/>
-        <v>6.2714303480377351</v>
+        <v>6.2891964396752362</v>
       </c>
       <c r="K276" s="4">
         <f t="shared" si="17"/>
@@ -12477,7 +12488,7 @@
         <v>54</v>
       </c>
       <c r="C277">
-        <v>37606</v>
+        <v>37791</v>
       </c>
       <c r="D277">
         <v>0</v>
@@ -12495,7 +12506,7 @@
         <v>3</v>
       </c>
       <c r="I277">
-        <v>1666</v>
+        <v>1668</v>
       </c>
       <c r="J277" s="4">
         <f t="shared" si="16"/>
@@ -12522,7 +12533,7 @@
         <v>58</v>
       </c>
       <c r="C278">
-        <v>37625</v>
+        <v>37849</v>
       </c>
       <c r="D278">
         <v>1</v>
@@ -12540,7 +12551,7 @@
         <v>10</v>
       </c>
       <c r="I278">
-        <v>1676</v>
+        <v>1678</v>
       </c>
       <c r="J278" s="4">
         <f t="shared" si="16"/>
@@ -12567,7 +12578,7 @@
         <v>61</v>
       </c>
       <c r="C279">
-        <v>37688</v>
+        <v>37910</v>
       </c>
       <c r="D279">
         <v>1</v>
@@ -12585,7 +12596,7 @@
         <v>4</v>
       </c>
       <c r="I279">
-        <v>1680</v>
+        <v>1682</v>
       </c>
       <c r="J279" s="4">
         <f t="shared" si="16"/>
@@ -12612,7 +12623,7 @@
         <v>82</v>
       </c>
       <c r="C280">
-        <v>37753</v>
+        <v>37992</v>
       </c>
       <c r="D280">
         <v>1</v>
@@ -12630,7 +12641,7 @@
         <v>11</v>
       </c>
       <c r="I280">
-        <v>1691</v>
+        <v>1693</v>
       </c>
       <c r="J280" s="4">
         <f t="shared" si="16"/>
@@ -12657,7 +12668,7 @@
         <v>75</v>
       </c>
       <c r="C281">
-        <v>37823</v>
+        <v>38067</v>
       </c>
       <c r="D281">
         <v>0</v>
@@ -12675,7 +12686,7 @@
         <v>6</v>
       </c>
       <c r="I281">
-        <v>1697</v>
+        <v>1699</v>
       </c>
       <c r="J281" s="4">
         <f t="shared" si="16"/>
@@ -12702,7 +12713,7 @@
         <v>67</v>
       </c>
       <c r="C282">
-        <v>37902</v>
+        <v>38134</v>
       </c>
       <c r="D282">
         <v>0</v>
@@ -12720,7 +12731,7 @@
         <v>6</v>
       </c>
       <c r="I282">
-        <v>1703</v>
+        <v>1705</v>
       </c>
       <c r="J282" s="4">
         <f t="shared" si="16"/>
@@ -12747,7 +12758,7 @@
         <v>90</v>
       </c>
       <c r="C283">
-        <v>37956</v>
+        <v>38224</v>
       </c>
       <c r="D283">
         <v>0</v>
@@ -12765,7 +12776,7 @@
         <v>3</v>
       </c>
       <c r="I283">
-        <v>1706</v>
+        <v>1708</v>
       </c>
       <c r="J283" s="4">
         <f t="shared" si="16"/>
@@ -12792,7 +12803,7 @@
         <v>103</v>
       </c>
       <c r="C284">
-        <v>38018</v>
+        <v>38327</v>
       </c>
       <c r="D284">
         <v>6</v>
@@ -12810,7 +12821,7 @@
         <v>4</v>
       </c>
       <c r="I284">
-        <v>1710</v>
+        <v>1712</v>
       </c>
       <c r="J284" s="4">
         <f t="shared" si="16"/>
@@ -12837,7 +12848,7 @@
         <v>96</v>
       </c>
       <c r="C285">
-        <v>38061</v>
+        <v>38423</v>
       </c>
       <c r="D285">
         <v>5</v>
@@ -12855,7 +12866,7 @@
         <v>4</v>
       </c>
       <c r="I285">
-        <v>1714</v>
+        <v>1716</v>
       </c>
       <c r="J285" s="4">
         <f t="shared" si="16"/>
@@ -12882,7 +12893,7 @@
         <v>87</v>
       </c>
       <c r="C286">
-        <v>38185</v>
+        <v>38510</v>
       </c>
       <c r="D286">
         <v>4</v>
@@ -12900,7 +12911,7 @@
         <v>8</v>
       </c>
       <c r="I286">
-        <v>1722</v>
+        <v>1724</v>
       </c>
       <c r="J286" s="4">
         <f t="shared" si="16"/>
@@ -12927,7 +12938,7 @@
         <v>99</v>
       </c>
       <c r="C287">
-        <v>38293</v>
+        <v>38609</v>
       </c>
       <c r="D287">
         <v>2</v>
@@ -12945,7 +12956,7 @@
         <v>7</v>
       </c>
       <c r="I287">
-        <v>1729</v>
+        <v>1731</v>
       </c>
       <c r="J287" s="4">
         <f t="shared" si="16"/>
@@ -12972,7 +12983,7 @@
         <v>124</v>
       </c>
       <c r="C288">
-        <v>38404</v>
+        <v>38733</v>
       </c>
       <c r="D288">
         <v>4</v>
@@ -12990,7 +13001,7 @@
         <v>7</v>
       </c>
       <c r="I288">
-        <v>1736</v>
+        <v>1738</v>
       </c>
       <c r="J288" s="4">
         <f t="shared" si="16"/>
@@ -13017,7 +13028,7 @@
         <v>123</v>
       </c>
       <c r="C289">
-        <v>38524</v>
+        <v>38856</v>
       </c>
       <c r="D289">
         <v>2</v>
@@ -13035,7 +13046,7 @@
         <v>6</v>
       </c>
       <c r="I289">
-        <v>1742</v>
+        <v>1744</v>
       </c>
       <c r="J289" s="4">
         <f t="shared" si="16"/>
@@ -13062,7 +13073,7 @@
         <v>159</v>
       </c>
       <c r="C290">
-        <v>38652</v>
+        <v>39015</v>
       </c>
       <c r="D290">
         <v>3</v>
@@ -13080,7 +13091,7 @@
         <v>4</v>
       </c>
       <c r="I290">
-        <v>1746</v>
+        <v>1748</v>
       </c>
       <c r="J290" s="4">
         <f t="shared" si="16"/>
@@ -13107,7 +13118,7 @@
         <v>119</v>
       </c>
       <c r="C291">
-        <v>38711</v>
+        <v>39134</v>
       </c>
       <c r="D291">
         <v>7</v>
@@ -13125,7 +13136,7 @@
         <v>11</v>
       </c>
       <c r="I291">
-        <v>1757</v>
+        <v>1759</v>
       </c>
       <c r="J291" s="4">
         <f t="shared" si="16"/>
@@ -13149,10 +13160,10 @@
         <v>44123</v>
       </c>
       <c r="B292">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C292">
-        <v>38783</v>
+        <v>39293</v>
       </c>
       <c r="D292">
         <v>4</v>
@@ -13170,11 +13181,11 @@
         <v>13</v>
       </c>
       <c r="I292">
-        <v>1770</v>
+        <v>1772</v>
       </c>
       <c r="J292" s="4">
         <f t="shared" si="16"/>
-        <v>15.438733632988079</v>
+        <v>15.45649972462558</v>
       </c>
       <c r="K292" s="4">
         <f t="shared" si="17"/>
@@ -13197,7 +13208,7 @@
         <v>171</v>
       </c>
       <c r="C293">
-        <v>38996</v>
+        <v>39464</v>
       </c>
       <c r="D293">
         <v>3</v>
@@ -13215,11 +13226,11 @@
         <v>4</v>
       </c>
       <c r="I293">
-        <v>1774</v>
+        <v>1776</v>
       </c>
       <c r="J293" s="4">
         <f t="shared" si="16"/>
-        <v>16.931085330538135</v>
+        <v>16.948851422175636</v>
       </c>
       <c r="K293" s="4">
         <f t="shared" si="17"/>
@@ -13242,7 +13253,7 @@
         <v>191</v>
       </c>
       <c r="C294">
-        <v>39140</v>
+        <v>39655</v>
       </c>
       <c r="D294">
         <v>6</v>
@@ -13260,11 +13271,11 @@
         <v>13</v>
       </c>
       <c r="I294">
-        <v>1787</v>
+        <v>1789</v>
       </c>
       <c r="J294" s="4">
         <f t="shared" si="16"/>
-        <v>18.565565761188196</v>
+        <v>18.583331852825697</v>
       </c>
       <c r="K294" s="4">
         <f t="shared" si="17"/>
@@ -13287,7 +13298,7 @@
         <v>185</v>
       </c>
       <c r="C295">
-        <v>39300</v>
+        <v>39840</v>
       </c>
       <c r="D295">
         <v>4</v>
@@ -13305,11 +13316,11 @@
         <v>28</v>
       </c>
       <c r="I295">
-        <v>1815</v>
+        <v>1817</v>
       </c>
       <c r="J295" s="4">
         <f t="shared" si="16"/>
-        <v>19.649297351075738</v>
+        <v>19.667063442713239</v>
       </c>
       <c r="K295" s="4">
         <f t="shared" si="17"/>
@@ -13332,7 +13343,7 @@
         <v>187</v>
       </c>
       <c r="C296">
-        <v>39488</v>
+        <v>40027</v>
       </c>
       <c r="D296">
         <v>6</v>
@@ -13350,11 +13361,11 @@
         <v>11</v>
       </c>
       <c r="I296">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="J296" s="4">
         <f t="shared" si="16"/>
-        <v>20.786327215875779</v>
+        <v>20.804093307513281</v>
       </c>
       <c r="K296" s="4">
         <f t="shared" si="17"/>
@@ -13377,7 +13388,7 @@
         <v>170</v>
       </c>
       <c r="C297">
-        <v>39629</v>
+        <v>40197</v>
       </c>
       <c r="D297">
         <v>8</v>
@@ -13395,11 +13406,11 @@
         <v>15</v>
       </c>
       <c r="I297">
-        <v>1841</v>
+        <v>1843</v>
       </c>
       <c r="J297" s="4">
         <f t="shared" si="16"/>
-        <v>20.981754223888288</v>
+        <v>20.999520315525789</v>
       </c>
       <c r="K297" s="4">
         <f t="shared" si="17"/>
@@ -13422,7 +13433,7 @@
         <v>205</v>
       </c>
       <c r="C298">
-        <v>39766</v>
+        <v>40402</v>
       </c>
       <c r="D298">
         <v>6</v>
@@ -13440,11 +13451,11 @@
         <v>16</v>
       </c>
       <c r="I298">
-        <v>1857</v>
+        <v>1859</v>
       </c>
       <c r="J298" s="4">
         <f t="shared" si="16"/>
-        <v>22.509638104713346</v>
+        <v>22.527404196350844</v>
       </c>
       <c r="K298" s="4">
         <f t="shared" si="17"/>
@@ -13467,7 +13478,7 @@
         <v>222</v>
       </c>
       <c r="C299">
-        <v>39856</v>
+        <v>40624</v>
       </c>
       <c r="D299">
         <v>11</v>
@@ -13485,7 +13496,7 @@
         <v>15</v>
       </c>
       <c r="I299">
-        <v>1872</v>
+        <v>1874</v>
       </c>
       <c r="J299" s="4">
         <f t="shared" si="16"/>
@@ -13512,7 +13523,7 @@
         <v>218</v>
       </c>
       <c r="C300">
-        <v>40178</v>
+        <v>40842</v>
       </c>
       <c r="D300">
         <v>10</v>
@@ -13530,7 +13541,7 @@
         <v>23</v>
       </c>
       <c r="I300">
-        <v>1895</v>
+        <v>1897</v>
       </c>
       <c r="J300" s="4">
         <f t="shared" si="16"/>
@@ -13557,7 +13568,7 @@
         <v>238</v>
       </c>
       <c r="C301">
-        <v>40414</v>
+        <v>41080</v>
       </c>
       <c r="D301">
         <v>9</v>
@@ -13575,7 +13586,7 @@
         <v>11</v>
       </c>
       <c r="I301">
-        <v>1906</v>
+        <v>1908</v>
       </c>
       <c r="J301" s="4">
         <f t="shared" si="16"/>
@@ -13602,7 +13613,7 @@
         <v>249</v>
       </c>
       <c r="C302">
-        <v>40628</v>
+        <v>41329</v>
       </c>
       <c r="D302">
         <v>14</v>
@@ -13620,7 +13631,7 @@
         <v>21</v>
       </c>
       <c r="I302">
-        <v>1927</v>
+        <v>1929</v>
       </c>
       <c r="J302" s="4">
         <f t="shared" si="16"/>
@@ -13647,7 +13658,7 @@
         <v>280</v>
       </c>
       <c r="C303">
-        <v>40854</v>
+        <v>41609</v>
       </c>
       <c r="D303">
         <v>9</v>
@@ -13665,7 +13676,7 @@
         <v>14</v>
       </c>
       <c r="I303">
-        <v>1941</v>
+        <v>1943</v>
       </c>
       <c r="J303" s="4">
         <f t="shared" si="16"/>
@@ -13692,7 +13703,7 @@
         <v>277</v>
       </c>
       <c r="C304">
-        <v>41132</v>
+        <v>41886</v>
       </c>
       <c r="D304">
         <v>7</v>
@@ -13710,7 +13721,7 @@
         <v>12</v>
       </c>
       <c r="I304">
-        <v>1953</v>
+        <v>1955</v>
       </c>
       <c r="J304" s="4">
         <f t="shared" si="16"/>
@@ -13737,7 +13748,7 @@
         <v>285</v>
       </c>
       <c r="C305">
-        <v>41264</v>
+        <v>42171</v>
       </c>
       <c r="D305">
         <v>10</v>
@@ -13755,7 +13766,7 @@
         <v>27</v>
       </c>
       <c r="I305">
-        <v>1980</v>
+        <v>1982</v>
       </c>
       <c r="J305" s="4">
         <f t="shared" si="16"/>
@@ -13779,10 +13790,10 @@
         <v>44137</v>
       </c>
       <c r="B306">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C306">
-        <v>41389</v>
+        <v>42452</v>
       </c>
       <c r="D306">
         <v>5</v>
@@ -13800,11 +13811,11 @@
         <v>17</v>
       </c>
       <c r="I306">
-        <v>1997</v>
+        <v>1999</v>
       </c>
       <c r="J306" s="4">
         <f t="shared" si="16"/>
-        <v>32.511947696626223</v>
+        <v>32.47641551335122</v>
       </c>
       <c r="K306" s="4">
         <f t="shared" si="17"/>
@@ -13824,10 +13835,10 @@
         <v>44138</v>
       </c>
       <c r="B307">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C307">
-        <v>41748</v>
+        <v>42743</v>
       </c>
       <c r="D307">
         <v>12</v>
@@ -13845,11 +13856,11 @@
         <v>23</v>
       </c>
       <c r="I307">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="J307" s="4">
         <f t="shared" si="16"/>
-        <v>33.791106294526266</v>
+        <v>33.773340202888768</v>
       </c>
       <c r="K307" s="4">
         <f t="shared" si="17"/>
@@ -13869,10 +13880,10 @@
         <v>44139</v>
       </c>
       <c r="B308">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C308">
-        <v>42136</v>
+        <v>43020</v>
       </c>
       <c r="D308">
         <v>10</v>
@@ -13890,7 +13901,7 @@
         <v>22</v>
       </c>
       <c r="I308">
-        <v>2042</v>
+        <v>2044</v>
       </c>
       <c r="J308" s="4">
         <f t="shared" si="16"/>
@@ -13917,7 +13928,7 @@
         <v>301</v>
       </c>
       <c r="C309">
-        <v>42433</v>
+        <v>43321</v>
       </c>
       <c r="D309">
         <v>7</v>
@@ -13935,7 +13946,7 @@
         <v>31</v>
       </c>
       <c r="I309">
-        <v>2073</v>
+        <v>2075</v>
       </c>
       <c r="J309" s="4">
         <f t="shared" si="16"/>
@@ -13959,10 +13970,10 @@
         <v>44141</v>
       </c>
       <c r="B310">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C310">
-        <v>42736</v>
+        <v>43652</v>
       </c>
       <c r="D310">
         <v>15</v>
@@ -13980,11 +13991,11 @@
         <v>26</v>
       </c>
       <c r="I310">
-        <v>2099</v>
+        <v>2101</v>
       </c>
       <c r="J310" s="4">
         <f t="shared" si="16"/>
-        <v>36.313891307051364</v>
+        <v>36.296125215413859</v>
       </c>
       <c r="K310" s="4">
         <f t="shared" si="17"/>
@@ -14004,10 +14015,10 @@
         <v>44142</v>
       </c>
       <c r="B311">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C311">
-        <v>43064</v>
+        <v>43983</v>
       </c>
       <c r="D311">
         <v>7</v>
@@ -14025,11 +14036,11 @@
         <v>15</v>
       </c>
       <c r="I311">
-        <v>2114</v>
+        <v>2116</v>
       </c>
       <c r="J311" s="4">
         <f t="shared" si="16"/>
-        <v>37.291026347113899</v>
+        <v>37.255494163838897</v>
       </c>
       <c r="K311" s="4">
         <f t="shared" si="17"/>
@@ -14049,10 +14060,10 @@
         <v>44143</v>
       </c>
       <c r="B312">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C312">
-        <v>43191</v>
+        <v>44322</v>
       </c>
       <c r="D312">
         <v>10</v>
@@ -14070,7 +14081,7 @@
         <v>29</v>
       </c>
       <c r="I312">
-        <v>2143</v>
+        <v>2145</v>
       </c>
       <c r="J312" s="4">
         <f t="shared" si="16"/>
@@ -14094,10 +14105,10 @@
         <v>44144</v>
       </c>
       <c r="B313">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C313">
-        <v>43366</v>
+        <v>44724</v>
       </c>
       <c r="D313">
         <v>10</v>
@@ -14115,11 +14126,11 @@
         <v>29</v>
       </c>
       <c r="I313">
-        <v>2172</v>
+        <v>2174</v>
       </c>
       <c r="J313" s="4">
         <f t="shared" si="16"/>
-        <v>40.346794108764016</v>
+        <v>40.364560200401513</v>
       </c>
       <c r="K313" s="4">
         <f t="shared" si="17"/>
@@ -14142,7 +14153,7 @@
         <v>318</v>
       </c>
       <c r="C314">
-        <v>43826</v>
+        <v>45042</v>
       </c>
       <c r="D314">
         <v>8</v>
@@ -14160,7 +14171,7 @@
         <v>28</v>
       </c>
       <c r="I314">
-        <v>2200</v>
+        <v>2202</v>
       </c>
       <c r="J314" s="4">
         <f t="shared" si="16"/>
@@ -14184,10 +14195,10 @@
         <v>44146</v>
       </c>
       <c r="B315">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C315">
-        <v>44304</v>
+        <v>45351</v>
       </c>
       <c r="D315">
         <v>13</v>
@@ -14205,11 +14216,11 @@
         <v>29</v>
       </c>
       <c r="I315">
-        <v>2229</v>
+        <v>2231</v>
       </c>
       <c r="J315" s="4">
         <f t="shared" si="16"/>
-        <v>41.466057881926552</v>
+        <v>41.412759607014053</v>
       </c>
       <c r="K315" s="4">
         <f t="shared" si="17"/>
@@ -14232,7 +14243,7 @@
         <v>351</v>
       </c>
       <c r="C316">
-        <v>44773</v>
+        <v>45702</v>
       </c>
       <c r="D316">
         <v>10</v>
@@ -14250,11 +14261,11 @@
         <v>27</v>
       </c>
       <c r="I316">
-        <v>2256</v>
+        <v>2258</v>
       </c>
       <c r="J316" s="4">
         <f t="shared" si="16"/>
-        <v>42.354362463801586</v>
+        <v>42.301064188889086</v>
       </c>
       <c r="K316" s="4">
         <f t="shared" si="17"/>
@@ -14274,10 +14285,10 @@
         <v>44148</v>
       </c>
       <c r="B317">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C317">
-        <v>45053</v>
+        <v>46059</v>
       </c>
       <c r="D317">
         <v>11</v>
@@ -14295,7 +14306,7 @@
         <v>30</v>
       </c>
       <c r="I317">
-        <v>2286</v>
+        <v>2288</v>
       </c>
       <c r="J317" s="4">
         <f t="shared" si="16"/>
@@ -14319,10 +14330,10 @@
         <v>44149</v>
       </c>
       <c r="B318">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C318">
-        <v>45449</v>
+        <v>46416</v>
       </c>
       <c r="D318">
         <v>13</v>
@@ -14340,7 +14351,7 @@
         <v>18</v>
       </c>
       <c r="I318">
-        <v>2304</v>
+        <v>2306</v>
       </c>
       <c r="J318" s="4">
         <f t="shared" si="16"/>
@@ -14367,7 +14378,7 @@
         <v>379</v>
       </c>
       <c r="C319">
-        <v>45592</v>
+        <v>46795</v>
       </c>
       <c r="D319">
         <v>13</v>
@@ -14385,11 +14396,11 @@
         <v>25</v>
       </c>
       <c r="I319">
-        <v>2329</v>
+        <v>2331</v>
       </c>
       <c r="J319" s="4">
         <f t="shared" si="16"/>
-        <v>43.971076802814153</v>
+        <v>43.935544619539151</v>
       </c>
       <c r="K319" s="4">
         <f t="shared" si="17"/>
@@ -14412,7 +14423,7 @@
         <v>360</v>
       </c>
       <c r="C320">
-        <v>45783</v>
+        <v>47155</v>
       </c>
       <c r="D320">
         <v>9</v>
@@ -14427,14 +14438,14 @@
         <v>3462</v>
       </c>
       <c r="H320">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I320">
-        <v>2351</v>
+        <v>2354</v>
       </c>
       <c r="J320" s="4">
         <f t="shared" si="16"/>
-        <v>43.207134862401624</v>
+        <v>43.189368770764119</v>
       </c>
       <c r="K320" s="4">
         <f t="shared" si="17"/>
@@ -14446,7 +14457,7 @@
       </c>
       <c r="M320" s="4">
         <f t="shared" si="19"/>
-        <v>56.773129499825558</v>
+        <v>57.090297821053639</v>
       </c>
     </row>
     <row r="321" spans="1:13" x14ac:dyDescent="0.25">
@@ -14457,7 +14468,7 @@
         <v>363</v>
       </c>
       <c r="C321">
-        <v>46301</v>
+        <v>47518</v>
       </c>
       <c r="D321">
         <v>11</v>
@@ -14475,11 +14486,11 @@
         <v>28</v>
       </c>
       <c r="I321">
-        <v>2379</v>
+        <v>2382</v>
       </c>
       <c r="J321" s="4">
         <f t="shared" si="16"/>
-        <v>44.006608986089148</v>
+        <v>43.988842894451651</v>
       </c>
       <c r="K321" s="4">
         <f t="shared" si="17"/>
@@ -14491,7 +14502,7 @@
       </c>
       <c r="M321" s="4">
         <f t="shared" si="19"/>
-        <v>56.773129499825558</v>
+        <v>57.090297821053639</v>
       </c>
     </row>
     <row r="322" spans="1:13" x14ac:dyDescent="0.25">
@@ -14499,10 +14510,10 @@
         <v>44153</v>
       </c>
       <c r="B322">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C322">
-        <v>46724</v>
+        <v>47953</v>
       </c>
       <c r="D322">
         <v>10</v>
@@ -14520,7 +14531,7 @@
         <v>18</v>
       </c>
       <c r="I322">
-        <v>2397</v>
+        <v>2400</v>
       </c>
       <c r="J322" s="4">
         <f t="shared" si="16"/>
@@ -14536,7 +14547,7 @@
       </c>
       <c r="M322" s="4">
         <f t="shared" si="19"/>
-        <v>53.284277966316729</v>
+        <v>53.601446287544803</v>
       </c>
     </row>
     <row r="323" spans="1:13" x14ac:dyDescent="0.25">
@@ -14547,7 +14558,7 @@
         <v>393</v>
       </c>
       <c r="C323">
-        <v>47140</v>
+        <v>48346</v>
       </c>
       <c r="D323">
         <v>13</v>
@@ -14562,10 +14573,10 @@
         <v>3546</v>
       </c>
       <c r="H323">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I323">
-        <v>2420</v>
+        <v>2424</v>
       </c>
       <c r="J323" s="4">
         <f t="shared" si="16"/>
@@ -14581,7 +14592,7 @@
       </c>
       <c r="M323" s="4">
         <f t="shared" si="19"/>
-        <v>52.015604681404426</v>
+        <v>52.649941323860574</v>
       </c>
     </row>
     <row r="324" spans="1:13" x14ac:dyDescent="0.25">
@@ -14589,10 +14600,10 @@
         <v>44155</v>
       </c>
       <c r="B324">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C324">
-        <v>47576</v>
+        <v>48734</v>
       </c>
       <c r="D324">
         <v>13</v>
@@ -14610,11 +14621,11 @@
         <v>20</v>
       </c>
       <c r="I324">
-        <v>2440</v>
+        <v>2444</v>
       </c>
       <c r="J324" s="4">
         <f t="shared" si="16"/>
-        <v>47.506529038676781</v>
+        <v>47.524295130314286</v>
       </c>
       <c r="K324" s="4">
         <f t="shared" si="17"/>
@@ -14626,7 +14637,7 @@
       </c>
       <c r="M324" s="4">
         <f t="shared" si="19"/>
-        <v>48.843921469123664</v>
+        <v>49.478258111579819</v>
       </c>
     </row>
     <row r="325" spans="1:13" x14ac:dyDescent="0.25">
@@ -14634,10 +14645,10 @@
         <v>44156</v>
       </c>
       <c r="B325">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C325">
-        <v>47842</v>
+        <v>49130</v>
       </c>
       <c r="D325">
         <v>7</v>
@@ -14655,11 +14666,11 @@
         <v>25</v>
       </c>
       <c r="I325">
-        <v>2465</v>
+        <v>2469</v>
       </c>
       <c r="J325" s="4">
         <f t="shared" si="16"/>
-        <v>48.163874429264304</v>
+        <v>48.217172704176811</v>
       </c>
       <c r="K325" s="4">
         <f t="shared" si="17"/>
@@ -14671,7 +14682,7 @@
       </c>
       <c r="M325" s="4">
         <f t="shared" si="19"/>
-        <v>51.064099717720197</v>
+        <v>51.698436360176352</v>
       </c>
     </row>
     <row r="326" spans="1:13" x14ac:dyDescent="0.25">
@@ -14679,10 +14690,10 @@
         <v>44157</v>
       </c>
       <c r="B326">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C326">
-        <v>48212</v>
+        <v>49536</v>
       </c>
       <c r="D326">
         <v>6</v>
@@ -14700,11 +14711,11 @@
         <v>27</v>
       </c>
       <c r="I326">
-        <v>2492</v>
+        <v>2496</v>
       </c>
       <c r="J326" s="4">
         <f t="shared" si="16"/>
-        <v>48.590260628564323</v>
+        <v>48.69685717838933</v>
       </c>
       <c r="K326" s="4">
         <f t="shared" si="17"/>
@@ -14716,7 +14727,7 @@
       </c>
       <c r="M326" s="4">
         <f t="shared" si="19"/>
-        <v>51.698436360176352</v>
+        <v>52.3327730026325</v>
       </c>
     </row>
     <row r="327" spans="1:13" x14ac:dyDescent="0.25">
@@ -14724,10 +14735,10 @@
         <v>44158</v>
       </c>
       <c r="B327">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C327">
-        <v>48406</v>
+        <v>49934</v>
       </c>
       <c r="D327">
         <v>8</v>
@@ -14742,14 +14753,14 @@
         <v>3674</v>
       </c>
       <c r="H327">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I327">
-        <v>2515</v>
+        <v>2520</v>
       </c>
       <c r="J327" s="4">
         <f t="shared" ref="J327:J339" si="20">SUM(B321:B327)/(56.287)</f>
-        <v>49.229839927514348</v>
+        <v>49.37196866061435</v>
       </c>
       <c r="K327" s="4">
         <f t="shared" ref="K327:K339" si="21">SUM(D321:D327)/(1.8937)</f>
@@ -14761,7 +14772,7 @@
       </c>
       <c r="M327" s="4">
         <f t="shared" ref="M327:M339" si="23">SUM(H321:H327)/(3.1529)</f>
-        <v>52.015604681404426</v>
+        <v>52.649941323860574</v>
       </c>
     </row>
     <row r="328" spans="1:13" x14ac:dyDescent="0.25">
@@ -14769,10 +14780,10 @@
         <v>44159</v>
       </c>
       <c r="B328">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="C328">
-        <v>48941</v>
+        <v>50336</v>
       </c>
       <c r="D328">
         <v>7</v>
@@ -14790,11 +14801,11 @@
         <v>17</v>
       </c>
       <c r="I328">
-        <v>2532</v>
+        <v>2537</v>
       </c>
       <c r="J328" s="4">
         <f t="shared" si="20"/>
-        <v>49.851653134826869</v>
+        <v>50.064846234476882</v>
       </c>
       <c r="K328" s="4">
         <f t="shared" si="21"/>
@@ -14806,7 +14817,7 @@
       </c>
       <c r="M328" s="4">
         <f t="shared" si="23"/>
-        <v>48.52675314789559</v>
+        <v>49.161089790351745</v>
       </c>
     </row>
     <row r="329" spans="1:13" x14ac:dyDescent="0.25">
@@ -14814,10 +14825,10 @@
         <v>44160</v>
       </c>
       <c r="B329">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C329">
-        <v>49545</v>
+        <v>50756</v>
       </c>
       <c r="D329">
         <v>9</v>
@@ -14835,11 +14846,11 @@
         <v>17</v>
       </c>
       <c r="I329">
-        <v>2549</v>
+        <v>2554</v>
       </c>
       <c r="J329" s="4">
         <f t="shared" si="20"/>
-        <v>49.549629576989361</v>
+        <v>49.798354859914369</v>
       </c>
       <c r="K329" s="4">
         <f t="shared" si="21"/>
@@ -14851,7 +14862,7 @@
       </c>
       <c r="M329" s="4">
         <f t="shared" si="23"/>
-        <v>48.209584826667516</v>
+        <v>48.843921469123664</v>
       </c>
     </row>
     <row r="330" spans="1:13" x14ac:dyDescent="0.25">
@@ -14859,10 +14870,10 @@
         <v>44161</v>
       </c>
       <c r="B330">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C330">
-        <v>49956</v>
+        <v>51126</v>
       </c>
       <c r="D330">
         <v>8</v>
@@ -14877,14 +14888,14 @@
         <v>3758</v>
       </c>
       <c r="H330">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I330">
-        <v>2575</v>
+        <v>2581</v>
       </c>
       <c r="J330" s="4">
         <f t="shared" si="20"/>
-        <v>49.087711194414339</v>
+        <v>49.389734752251854</v>
       </c>
       <c r="K330" s="4">
         <f t="shared" si="21"/>
@@ -14896,7 +14907,7 @@
       </c>
       <c r="M330" s="4">
         <f t="shared" si="23"/>
-        <v>49.161089790351745</v>
+        <v>49.795426432807893</v>
       </c>
     </row>
     <row r="331" spans="1:13" x14ac:dyDescent="0.25">
@@ -14904,10 +14915,10 @@
         <v>44162</v>
       </c>
       <c r="B331">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C331">
-        <v>50407</v>
+        <v>51487</v>
       </c>
       <c r="D331">
         <v>10</v>
@@ -14916,20 +14927,20 @@
         <v>982</v>
       </c>
       <c r="F331">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G331">
-        <v>3779</v>
+        <v>3780</v>
       </c>
       <c r="H331">
         <v>25</v>
       </c>
       <c r="I331">
-        <v>2600</v>
+        <v>2606</v>
       </c>
       <c r="J331" s="4">
         <f t="shared" si="20"/>
-        <v>48.625792811839325</v>
+        <v>48.910050278039336</v>
       </c>
       <c r="K331" s="4">
         <f t="shared" si="21"/>
@@ -14937,11 +14948,11 @@
       </c>
       <c r="L331" s="4">
         <f t="shared" si="22"/>
-        <v>37.34006918895173</v>
+        <v>37.523108743799533</v>
       </c>
       <c r="M331" s="4">
         <f t="shared" si="23"/>
-        <v>50.746931396492123</v>
+        <v>51.381268038948271</v>
       </c>
     </row>
     <row r="332" spans="1:13" x14ac:dyDescent="0.25">
@@ -14949,10 +14960,10 @@
         <v>44163</v>
       </c>
       <c r="B332">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="C332">
-        <v>50804</v>
+        <v>51860</v>
       </c>
       <c r="D332">
         <v>11</v>
@@ -14964,17 +14975,17 @@
         <v>38</v>
       </c>
       <c r="G332">
-        <v>3817</v>
+        <v>3818</v>
       </c>
       <c r="H332">
         <v>30</v>
       </c>
       <c r="I332">
-        <v>2630</v>
+        <v>2636</v>
       </c>
       <c r="J332" s="4">
         <f t="shared" si="20"/>
-        <v>48.057277879439305</v>
+        <v>48.501430170376821</v>
       </c>
       <c r="K332" s="4">
         <f t="shared" si="21"/>
@@ -14982,11 +14993,11 @@
       </c>
       <c r="L332" s="4">
         <f t="shared" si="22"/>
-        <v>38.255266963190742</v>
+        <v>38.438306518038544</v>
       </c>
       <c r="M332" s="4">
         <f t="shared" si="23"/>
-        <v>52.3327730026325</v>
+        <v>52.967109645088655</v>
       </c>
     </row>
     <row r="333" spans="1:13" x14ac:dyDescent="0.25">
@@ -14994,10 +15005,10 @@
         <v>44164</v>
       </c>
       <c r="B333">
-        <v>382</v>
+        <v>400</v>
       </c>
       <c r="C333">
-        <v>50998</v>
+        <v>52260</v>
       </c>
       <c r="D333">
         <v>7</v>
@@ -15009,17 +15020,17 @@
         <v>26</v>
       </c>
       <c r="G333">
-        <v>3843</v>
+        <v>3844</v>
       </c>
       <c r="H333">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I333">
-        <v>2650</v>
+        <v>2657</v>
       </c>
       <c r="J333" s="4">
         <f t="shared" si="20"/>
-        <v>47.684189955051792</v>
+        <v>48.394833620551815</v>
       </c>
       <c r="K333" s="4">
         <f t="shared" si="21"/>
@@ -15027,11 +15038,11 @@
       </c>
       <c r="L333" s="4">
         <f t="shared" si="22"/>
-        <v>36.424871414712719</v>
+        <v>36.607910969560521</v>
       </c>
       <c r="M333" s="4">
         <f t="shared" si="23"/>
-        <v>50.112594754035968</v>
+        <v>51.064099717720197</v>
       </c>
     </row>
     <row r="334" spans="1:13" x14ac:dyDescent="0.25">
@@ -15039,10 +15050,10 @@
         <v>44165</v>
       </c>
       <c r="B334">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C334">
-        <v>51187</v>
+        <v>52615</v>
       </c>
       <c r="D334">
         <v>12</v>
@@ -15051,20 +15062,20 @@
         <v>1012</v>
       </c>
       <c r="F334">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G334">
-        <v>3873</v>
+        <v>3875</v>
       </c>
       <c r="H334">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I334">
-        <v>2664</v>
+        <v>2673</v>
       </c>
       <c r="J334" s="4">
         <f t="shared" si="20"/>
-        <v>46.902481923001758</v>
+        <v>47.630891680139285</v>
       </c>
       <c r="K334" s="4">
         <f t="shared" si="21"/>
@@ -15072,11 +15083,11 @@
       </c>
       <c r="L334" s="4">
         <f t="shared" si="22"/>
-        <v>36.424871414712719</v>
+        <v>36.790950524408323</v>
       </c>
       <c r="M334" s="4">
         <f t="shared" si="23"/>
-        <v>47.258079862983287</v>
+        <v>48.52675314789559</v>
       </c>
     </row>
     <row r="335" spans="1:13" x14ac:dyDescent="0.25">
@@ -15084,10 +15095,10 @@
         <v>44166</v>
       </c>
       <c r="B335">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="C335">
-        <v>52856</v>
+        <v>52943</v>
       </c>
       <c r="D335">
         <v>6</v>
@@ -15096,20 +15107,20 @@
         <v>1018</v>
       </c>
       <c r="F335">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G335">
-        <v>3899</v>
+        <v>3902</v>
       </c>
       <c r="H335">
         <v>18</v>
       </c>
       <c r="I335">
-        <v>2682</v>
+        <v>2691</v>
       </c>
       <c r="J335" s="4">
         <f t="shared" si="20"/>
-        <v>45.410130225451702</v>
+        <v>46.31620089896424</v>
       </c>
       <c r="K335" s="4">
         <f t="shared" si="21"/>
@@ -15117,11 +15128,11 @@
       </c>
       <c r="L335" s="4">
         <f t="shared" si="22"/>
-        <v>35.875752750169312</v>
+        <v>36.424871414712719</v>
       </c>
       <c r="M335" s="4">
         <f t="shared" si="23"/>
-        <v>47.575248184211361</v>
+        <v>48.843921469123664</v>
       </c>
     </row>
     <row r="336" spans="1:13" x14ac:dyDescent="0.25">
@@ -15129,10 +15140,10 @@
         <v>44167</v>
       </c>
       <c r="B336">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="C336">
-        <v>53176</v>
+        <v>53269</v>
       </c>
       <c r="D336">
         <v>8</v>
@@ -15144,17 +15155,17 @@
         <v>19</v>
       </c>
       <c r="G336">
-        <v>3918</v>
+        <v>3921</v>
       </c>
       <c r="H336">
         <v>18</v>
       </c>
       <c r="I336">
-        <v>2700</v>
+        <v>2709</v>
       </c>
       <c r="J336" s="4">
         <f t="shared" si="20"/>
-        <v>43.65128715333914</v>
+        <v>44.646188285039173</v>
       </c>
       <c r="K336" s="4">
         <f t="shared" si="21"/>
@@ -15162,11 +15173,11 @@
       </c>
       <c r="L336" s="4">
         <f t="shared" si="22"/>
-        <v>33.496238537147875</v>
+        <v>34.045357201691282</v>
       </c>
       <c r="M336" s="4">
         <f t="shared" si="23"/>
-        <v>47.892416505439442</v>
+        <v>49.161089790351745</v>
       </c>
     </row>
     <row r="337" spans="1:13" x14ac:dyDescent="0.25">
@@ -15174,10 +15185,10 @@
         <v>44168</v>
       </c>
       <c r="B337">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="C337">
-        <v>53530</v>
+        <v>53634</v>
       </c>
       <c r="D337">
         <v>6</v>
@@ -15186,20 +15197,20 @@
         <v>1032</v>
       </c>
       <c r="F337">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="G337">
-        <v>3943</v>
+        <v>3954</v>
       </c>
       <c r="H337">
         <v>20</v>
       </c>
       <c r="I337">
-        <v>2720</v>
+        <v>2729</v>
       </c>
       <c r="J337" s="4">
         <f t="shared" si="20"/>
-        <v>43.42032796205163</v>
+        <v>44.557357826851671</v>
       </c>
       <c r="K337" s="4">
         <f t="shared" si="21"/>
@@ -15207,11 +15218,11 @@
       </c>
       <c r="L337" s="4">
         <f t="shared" si="22"/>
-        <v>33.862317646843479</v>
+        <v>35.875752750169312</v>
       </c>
       <c r="M337" s="4">
         <f t="shared" si="23"/>
-        <v>45.989406578070984</v>
+        <v>46.940911541755213</v>
       </c>
     </row>
     <row r="338" spans="1:13" x14ac:dyDescent="0.25">
@@ -15219,10 +15230,10 @@
         <v>44169</v>
       </c>
       <c r="B338">
-        <v>332</v>
+        <v>364</v>
       </c>
       <c r="C338">
-        <v>53862</v>
+        <v>53998</v>
       </c>
       <c r="D338">
         <v>7</v>
@@ -15231,20 +15242,20 @@
         <v>1039</v>
       </c>
       <c r="F338">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G338">
-        <v>3961</v>
+        <v>3980</v>
       </c>
       <c r="H338">
         <v>0</v>
       </c>
       <c r="I338">
-        <v>2720</v>
+        <v>2729</v>
       </c>
       <c r="J338" s="4">
         <f t="shared" si="20"/>
-        <v>42.940643487839111</v>
+        <v>44.610656101764171</v>
       </c>
       <c r="K338" s="4">
         <f t="shared" si="21"/>
@@ -15252,11 +15263,11 @@
       </c>
       <c r="L338" s="4">
         <f t="shared" si="22"/>
-        <v>33.313198982300072</v>
+        <v>36.607910969560521</v>
       </c>
       <c r="M338" s="4">
         <f t="shared" si="23"/>
-        <v>38.06019854736909</v>
+        <v>39.011703511053319</v>
       </c>
     </row>
     <row r="339" spans="1:13" x14ac:dyDescent="0.25">
@@ -15264,44 +15275,44 @@
         <v>44170</v>
       </c>
       <c r="B339">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="C339">
-        <v>54124</v>
+        <v>54286</v>
       </c>
       <c r="D339">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E339">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="F339">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G339">
-        <v>3969</v>
+        <v>3997</v>
       </c>
       <c r="H339">
         <v>12</v>
       </c>
       <c r="I339">
-        <v>2732</v>
+        <v>2741</v>
       </c>
       <c r="J339" s="4">
         <f t="shared" si="20"/>
-        <v>41.146268232451547</v>
+        <v>43.100538312576617</v>
       </c>
       <c r="K339" s="4">
         <f t="shared" si="21"/>
-        <v>30.099804615303377</v>
+        <v>30.627871362940276</v>
       </c>
       <c r="L339" s="4">
         <f t="shared" si="22"/>
-        <v>27.822012336865996</v>
+        <v>32.764080317756665</v>
       </c>
       <c r="M339" s="4">
         <f t="shared" si="23"/>
-        <v>32.351168765263729</v>
+        <v>33.302673728947951</v>
       </c>
     </row>
     <row r="340" spans="1:13" x14ac:dyDescent="0.25">
@@ -15309,44 +15320,44 @@
         <v>44171</v>
       </c>
       <c r="B340">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="C340">
-        <v>54398</v>
+        <v>54584</v>
       </c>
       <c r="D340">
         <v>11</v>
       </c>
       <c r="E340">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="F340">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="G340">
-        <v>3978</v>
+        <v>4020</v>
       </c>
       <c r="H340">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I340">
-        <v>2748</v>
+        <v>2762</v>
       </c>
       <c r="J340" s="4">
         <f>SUM(B334:B340)/(56.287)</f>
-        <v>39.227530335601472</v>
+        <v>41.288396965551549</v>
       </c>
       <c r="K340" s="4">
         <f>SUM(D334:D340)/(1.8937)</f>
-        <v>32.21207160585098</v>
+        <v>32.740138353487879</v>
       </c>
       <c r="L340" s="4">
         <f>SUM(F334:F340)/(5.4633)</f>
-        <v>24.710339904453352</v>
+        <v>32.214961653213258</v>
       </c>
       <c r="M340" s="4">
         <f>SUM(H334:H340)/(3.1529)</f>
-        <v>31.082495480351426</v>
+        <v>33.302673728947951</v>
       </c>
     </row>
     <row r="341" spans="1:13" x14ac:dyDescent="0.25">
@@ -15354,44 +15365,44 @@
         <v>44172</v>
       </c>
       <c r="B341">
-        <v>243</v>
+        <v>304</v>
       </c>
       <c r="C341">
-        <v>54641</v>
+        <v>54888</v>
       </c>
       <c r="D341">
         <v>17</v>
       </c>
       <c r="E341">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="F341">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="G341">
-        <v>3988</v>
+        <v>4044</v>
       </c>
       <c r="H341">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="I341">
-        <v>2753</v>
+        <v>2776</v>
       </c>
       <c r="J341" s="4">
         <f t="shared" ref="J341:J342" si="24">SUM(B335:B341)/(56.287)</f>
-        <v>37.291026347113899</v>
+        <v>40.382326292039018</v>
       </c>
       <c r="K341" s="4">
         <f t="shared" ref="K341:K342" si="25">SUM(D335:D341)/(1.8937)</f>
-        <v>34.852405344035489</v>
+        <v>35.380472091672388</v>
       </c>
       <c r="L341" s="4">
         <f t="shared" ref="L341:L342" si="26">SUM(F335:F341)/(5.4633)</f>
-        <v>21.049548807497299</v>
+        <v>30.933684769278639</v>
       </c>
       <c r="M341" s="4">
         <f t="shared" ref="M341:M342" si="27">SUM(H335:H341)/(3.1529)</f>
-        <v>28.227980589298742</v>
+        <v>32.668337086491803</v>
       </c>
     </row>
     <row r="342" spans="1:13" x14ac:dyDescent="0.25">
@@ -15399,44 +15410,102 @@
         <v>44173</v>
       </c>
       <c r="B342">
-        <v>95</v>
+        <v>303</v>
       </c>
       <c r="C342">
-        <v>54736</v>
+        <v>55191</v>
       </c>
       <c r="D342">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E342">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="F342">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G342">
-        <v>3989</v>
+        <v>4060</v>
       </c>
       <c r="H342">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I342">
-        <v>2756</v>
+        <v>2787</v>
       </c>
       <c r="J342" s="4">
         <f t="shared" si="24"/>
-        <v>33.400252278501256</v>
+        <v>39.938174001101501</v>
       </c>
       <c r="K342" s="4">
         <f t="shared" si="25"/>
-        <v>34.324338596398583</v>
+        <v>35.380472091672388</v>
       </c>
       <c r="L342" s="4">
         <f t="shared" si="26"/>
-        <v>16.473559936302234</v>
+        <v>28.920249665952809</v>
       </c>
       <c r="M342" s="4">
         <f t="shared" si="27"/>
-        <v>23.470455770877606</v>
+        <v>30.448158837895274</v>
+      </c>
+    </row>
+    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A343" s="1">
+        <v>44174</v>
+      </c>
+      <c r="B343">
+        <v>240</v>
+      </c>
+      <c r="C343">
+        <v>55431</v>
+      </c>
+      <c r="D343">
+        <v>9</v>
+      </c>
+      <c r="E343">
+        <v>1094</v>
+      </c>
+      <c r="F343">
+        <v>10</v>
+      </c>
+      <c r="G343">
+        <v>4070</v>
+      </c>
+      <c r="H343">
+        <v>2</v>
+      </c>
+      <c r="I343">
+        <v>2789</v>
+      </c>
+    </row>
+    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A344" s="1">
+        <v>44175</v>
+      </c>
+      <c r="B344">
+        <v>77</v>
+      </c>
+      <c r="C344">
+        <v>55508</v>
+      </c>
+      <c r="D344">
+        <v>12</v>
+      </c>
+      <c r="E344">
+        <v>1106</v>
+      </c>
+      <c r="F344">
+        <v>0</v>
+      </c>
+      <c r="G344">
+        <v>4070</v>
+      </c>
+      <c r="H344">
+        <v>0</v>
+      </c>
+      <c r="I344">
+        <v>2789</v>
       </c>
     </row>
   </sheetData>
